--- a/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9939724034263244</v>
+        <v>0.9966887985497479</v>
       </c>
       <c r="D3">
+        <v>0.9939724034263243</v>
+      </c>
+      <c r="E3">
         <v>0.9966887985497479</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.000693919062571</v>
       </c>
-      <c r="F3">
-        <v>0.9939724034263244</v>
-      </c>
       <c r="G3">
-        <v>0.989515745521539</v>
+        <v>0.9975529482114194</v>
       </c>
       <c r="H3">
         <v>1.007845501892235</v>
       </c>
       <c r="I3">
-        <v>0.9975529482114194</v>
+        <v>0.989515745521539</v>
       </c>
       <c r="J3">
-        <v>0.9966887985497479</v>
+        <v>0.9939724034263243</v>
       </c>
       <c r="K3">
-        <v>0.9939724034263244</v>
+        <v>0.9939724034263243</v>
       </c>
       <c r="L3">
         <v>1.000693919062571</v>
@@ -713,22 +665,22 @@
         <v>1.001742739834851</v>
       </c>
       <c r="P3">
-        <v>0.9971183736795478</v>
+        <v>0.9971183736795477</v>
       </c>
       <c r="Q3">
-        <v>0.9971183736795478</v>
+        <v>0.9971183736795477</v>
       </c>
       <c r="R3">
-        <v>0.996331881116242</v>
+        <v>0.9963318811162418</v>
       </c>
       <c r="S3">
-        <v>0.996331881116242</v>
+        <v>0.9963318811162418</v>
       </c>
       <c r="T3">
         <v>0.9977115527773061</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9950267695014033</v>
+      </c>
+      <c r="D4">
         <v>0.9894521664842243</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9950267695014033</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.00070804397502</v>
       </c>
-      <c r="F4">
-        <v>0.9894521664842243</v>
-      </c>
       <c r="G4">
-        <v>0.9795415742781129</v>
+        <v>0.9952368444042927</v>
       </c>
       <c r="H4">
         <v>1.01494540532494</v>
       </c>
       <c r="I4">
-        <v>0.9952368444042927</v>
+        <v>0.9795415742781129</v>
       </c>
       <c r="J4">
-        <v>0.9950267695014033</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="K4">
         <v>0.9894521664842243</v>
@@ -790,7 +742,7 @@
         <v>0.9958184673279989</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9881198104934729</v>
+      </c>
+      <c r="D5">
         <v>0.9778946787286684</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.9881198104934729</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.002797895988164</v>
       </c>
-      <c r="F5">
-        <v>0.9778946787286684</v>
-      </c>
       <c r="G5">
-        <v>0.96141777604519</v>
+        <v>0.9908233248097845</v>
       </c>
       <c r="H5">
         <v>1.028972992325148</v>
       </c>
       <c r="I5">
-        <v>0.9908233248097845</v>
+        <v>0.9614177760451899</v>
       </c>
       <c r="J5">
-        <v>0.9881198104934729</v>
+        <v>0.9778946787286684</v>
       </c>
       <c r="K5">
         <v>0.9778946787286684</v>
@@ -852,7 +804,7 @@
         <v>0.991671079731738</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9728525610313339</v>
+        <v>0.9749182692553735</v>
       </c>
       <c r="D6">
+        <v>0.9728525610313338</v>
+      </c>
+      <c r="E6">
         <v>0.9749182692553735</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.005695711467077</v>
       </c>
-      <c r="F6">
-        <v>0.9728525610313339</v>
-      </c>
       <c r="G6">
-        <v>0.944987151106472</v>
+        <v>0.9837609309837915</v>
       </c>
       <c r="H6">
         <v>1.0448655267686</v>
       </c>
       <c r="I6">
-        <v>0.9837609309837915</v>
+        <v>0.944987151106472</v>
       </c>
       <c r="J6">
-        <v>0.9749182692553735</v>
+        <v>0.9728525610313338</v>
       </c>
       <c r="K6">
-        <v>0.9728525610313339</v>
+        <v>0.9728525610313338</v>
       </c>
       <c r="L6">
         <v>1.005695711467077</v>
@@ -914,7 +866,7 @@
         <v>0.9878466917687746</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +874,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999632589284158</v>
+        <v>0.9999154850452475</v>
       </c>
       <c r="D7">
-        <v>0.9999154850452487</v>
+        <v>0.9996325892841583</v>
       </c>
       <c r="E7">
-        <v>1.000194139861201</v>
+        <v>0.9999154850452475</v>
       </c>
       <c r="F7">
-        <v>0.999632589284158</v>
+        <v>1.0001941398612</v>
       </c>
       <c r="G7">
-        <v>0.999199184780212</v>
+        <v>0.999941372031342</v>
       </c>
       <c r="H7">
         <v>1.000306409819421</v>
       </c>
       <c r="I7">
-        <v>0.999941372031342</v>
+        <v>0.9991991847802123</v>
       </c>
       <c r="J7">
-        <v>0.9999154850452487</v>
+        <v>0.9996325892841583</v>
       </c>
       <c r="K7">
-        <v>0.999632589284158</v>
+        <v>0.9996325892841583</v>
       </c>
       <c r="L7">
-        <v>1.000194139861201</v>
+        <v>1.0001941398612</v>
       </c>
       <c r="M7">
-        <v>1.000054812453225</v>
+        <v>1.000054812453224</v>
       </c>
       <c r="N7">
-        <v>1.000054812453225</v>
+        <v>1.000054812453224</v>
       </c>
       <c r="O7">
-        <v>1.000138678241957</v>
+        <v>1.000138678241956</v>
       </c>
       <c r="P7">
-        <v>0.9999140713968692</v>
+        <v>0.9999140713968688</v>
       </c>
       <c r="Q7">
-        <v>0.9999140713968692</v>
+        <v>0.9999140713968687</v>
       </c>
       <c r="R7">
-        <v>0.9998437008686913</v>
+        <v>0.9998437008686911</v>
       </c>
       <c r="S7">
-        <v>0.9998437008686913</v>
+        <v>0.9998437008686911</v>
       </c>
       <c r="T7">
-        <v>0.9998648634702638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9998648634702637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998887295753117</v>
+        <v>0.9993011191028796</v>
       </c>
       <c r="D8">
-        <v>0.9993011191028804</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="E8">
+        <v>0.9993011191028796</v>
+      </c>
+      <c r="F8">
         <v>1.000340573711842</v>
       </c>
-      <c r="F8">
-        <v>0.9998887295753117</v>
-      </c>
       <c r="G8">
-        <v>0.9980723244570094</v>
+        <v>0.9999267204332899</v>
       </c>
       <c r="H8">
         <v>1.000442245214767</v>
       </c>
       <c r="I8">
-        <v>0.9999267204332896</v>
+        <v>0.9980723244570099</v>
       </c>
       <c r="J8">
-        <v>0.9993011191028804</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="K8">
-        <v>0.9998887295753117</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="L8">
         <v>1.000340573711842</v>
       </c>
       <c r="M8">
-        <v>0.9998208464073611</v>
+        <v>0.9998208464073608</v>
       </c>
       <c r="N8">
-        <v>0.9998208464073611</v>
+        <v>0.9998208464073608</v>
       </c>
       <c r="O8">
         <v>1.000027979343163</v>
       </c>
       <c r="P8">
-        <v>0.9998434741300114</v>
+        <v>0.9998434741300111</v>
       </c>
       <c r="Q8">
-        <v>0.9998434741300114</v>
+        <v>0.9998434741300111</v>
       </c>
       <c r="R8">
-        <v>0.9998547879913364</v>
+        <v>0.9998547879913362</v>
       </c>
       <c r="S8">
-        <v>0.9998547879913364</v>
+        <v>0.9998547879913362</v>
       </c>
       <c r="T8">
         <v>0.9996619520825166</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9991544355915257</v>
+      </c>
+      <c r="D9">
         <v>1.001117409902058</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.9991544355915257</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.9998563338440616</v>
       </c>
-      <c r="F9">
-        <v>1.001117409902058</v>
-      </c>
       <c r="G9">
-        <v>0.9967842133715248</v>
+        <v>0.9998559330746394</v>
       </c>
       <c r="H9">
         <v>1.000570730617331</v>
       </c>
       <c r="I9">
-        <v>0.9998559330746394</v>
+        <v>0.9967842133715248</v>
       </c>
       <c r="J9">
-        <v>0.9991544355915257</v>
+        <v>1.001117409902058</v>
       </c>
       <c r="K9">
         <v>1.001117409902058</v>
@@ -1100,7 +1052,7 @@
         <v>0.99955650940019</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9977333200879432</v>
+      </c>
+      <c r="D10">
         <v>1.000752933880836</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9977333200879432</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.000423364245246</v>
       </c>
-      <c r="F10">
-        <v>1.000752933880836</v>
-      </c>
       <c r="G10">
-        <v>0.993697390396123</v>
+        <v>0.9997220763587107</v>
       </c>
       <c r="H10">
         <v>1.001399587189502</v>
       </c>
       <c r="I10">
-        <v>0.9997220763587107</v>
+        <v>0.9936973903961233</v>
       </c>
       <c r="J10">
-        <v>0.9977333200879432</v>
+        <v>1.000752933880836</v>
       </c>
       <c r="K10">
         <v>1.000752933880836</v>
@@ -1138,10 +1090,10 @@
         <v>1.000423364245246</v>
       </c>
       <c r="M10">
-        <v>0.9990783421665946</v>
+        <v>0.9990783421665945</v>
       </c>
       <c r="N10">
-        <v>0.9990783421665946</v>
+        <v>0.9990783421665945</v>
       </c>
       <c r="O10">
         <v>0.9998520905075639</v>
@@ -1159,10 +1111,10 @@
         <v>0.9999156380237153</v>
       </c>
       <c r="T10">
-        <v>0.9989547786930602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9989547786930603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9959752148608054</v>
+      </c>
+      <c r="D11">
         <v>1.005610808024662</v>
       </c>
-      <c r="D11">
-        <v>0.9959752148608052</v>
-      </c>
       <c r="E11">
+        <v>0.9959752148608054</v>
+      </c>
+      <c r="F11">
         <v>0.9990906160810122</v>
       </c>
-      <c r="F11">
-        <v>1.005610808024662</v>
-      </c>
       <c r="G11">
-        <v>0.9875298302134751</v>
+        <v>0.9995834569188476</v>
       </c>
       <c r="H11">
         <v>1.001729530300203</v>
       </c>
       <c r="I11">
-        <v>0.9995834569188476</v>
+        <v>0.9875298302134751</v>
       </c>
       <c r="J11">
-        <v>0.9959752148608052</v>
+        <v>1.005610808024662</v>
       </c>
       <c r="K11">
         <v>1.005610808024662</v>
@@ -1200,10 +1152,10 @@
         <v>0.9990906160810122</v>
       </c>
       <c r="M11">
-        <v>0.9975329154709087</v>
+        <v>0.9975329154709088</v>
       </c>
       <c r="N11">
-        <v>0.9975329154709087</v>
+        <v>0.9975329154709088</v>
       </c>
       <c r="O11">
         <v>0.9989317870806733</v>
@@ -1221,10 +1173,10 @@
         <v>1.001571861747786</v>
       </c>
       <c r="T11">
-        <v>0.9982532427331675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9982532427331677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.8719239238809947</v>
+      </c>
+      <c r="D12">
         <v>1.012461433004076</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.8719239238809947</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.019430561912298</v>
       </c>
-      <c r="F12">
-        <v>1.012461433004076</v>
-      </c>
       <c r="G12">
-        <v>0.8129922066431099</v>
+        <v>1.014842993093235</v>
       </c>
       <c r="H12">
         <v>1.031253835925272</v>
       </c>
       <c r="I12">
-        <v>1.014842993093235</v>
+        <v>0.8129922066431101</v>
       </c>
       <c r="J12">
-        <v>0.8719239238809947</v>
+        <v>1.012461433004076</v>
       </c>
       <c r="K12">
         <v>1.012461433004076</v>
@@ -1286,7 +1238,7 @@
         <v>0.9604841590764979</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.167695709703199</v>
+      </c>
+      <c r="D13">
         <v>1.041518828479052</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.167695709703199</v>
       </c>
-      <c r="E13">
-        <v>0.9287705550867931</v>
-      </c>
       <c r="F13">
-        <v>1.041518828479052</v>
+        <v>0.9287705550867932</v>
       </c>
       <c r="G13">
-        <v>1.11806696659525</v>
+        <v>0.9643769858330019</v>
       </c>
       <c r="H13">
         <v>1.00542605858868</v>
       </c>
       <c r="I13">
-        <v>0.9643769858330018</v>
+        <v>1.118066966595249</v>
       </c>
       <c r="J13">
-        <v>1.167695709703199</v>
+        <v>1.041518828479052</v>
       </c>
       <c r="K13">
         <v>1.041518828479052</v>
       </c>
       <c r="L13">
-        <v>0.9287705550867931</v>
+        <v>0.9287705550867932</v>
       </c>
       <c r="M13">
         <v>1.048233132394996</v>
@@ -1348,7 +1300,7 @@
         <v>1.037642517380996</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4099686589766472</v>
+        <v>1.854160915451609</v>
       </c>
       <c r="D14">
+        <v>0.4099686589766471</v>
+      </c>
+      <c r="E14">
         <v>1.854160915451609</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.043768894579783</v>
       </c>
-      <c r="F14">
-        <v>0.4099686589766472</v>
-      </c>
       <c r="G14">
-        <v>1.568698496237104</v>
+        <v>0.8593119149466725</v>
       </c>
       <c r="H14">
         <v>1.1674583238723</v>
       </c>
       <c r="I14">
-        <v>0.8593119149466726</v>
+        <v>1.568698496237104</v>
       </c>
       <c r="J14">
-        <v>1.854160915451609</v>
+        <v>0.4099686589766471</v>
       </c>
       <c r="K14">
-        <v>0.4099686589766472</v>
+        <v>0.4099686589766471</v>
       </c>
       <c r="L14">
         <v>1.043768894579783</v>
@@ -1410,7 +1362,7 @@
         <v>1.150561200677353</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.702129702947961</v>
+      </c>
+      <c r="D15">
         <v>1.102088880422162</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.702129702947961</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.014844709945246</v>
       </c>
-      <c r="F15">
-        <v>1.102088880422162</v>
-      </c>
       <c r="G15">
-        <v>0.5578103691142329</v>
+        <v>1.042164527345565</v>
       </c>
       <c r="H15">
         <v>1.034614917364419</v>
       </c>
       <c r="I15">
-        <v>1.042164527345565</v>
+        <v>0.5578103691142329</v>
       </c>
       <c r="J15">
-        <v>0.702129702947961</v>
+        <v>1.102088880422162</v>
       </c>
       <c r="K15">
         <v>1.102088880422162</v>
@@ -1457,22 +1409,22 @@
         <v>0.9171964434192086</v>
       </c>
       <c r="P15">
-        <v>0.9396877644384564</v>
+        <v>0.9396877644384563</v>
       </c>
       <c r="Q15">
-        <v>0.9396877644384564</v>
+        <v>0.9396877644384563</v>
       </c>
       <c r="R15">
-        <v>0.9802880434343829</v>
+        <v>0.9802880434343828</v>
       </c>
       <c r="S15">
-        <v>0.9802880434343829</v>
+        <v>0.9802880434343828</v>
       </c>
       <c r="T15">
         <v>0.9089421845232644</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9976479790757909</v>
+        <v>0.9774565949712338</v>
       </c>
       <c r="D16">
-        <v>1.00083620924042</v>
+        <v>0.8864693610120481</v>
       </c>
       <c r="E16">
-        <v>1.000745611171903</v>
+        <v>0.9774565949712338</v>
       </c>
       <c r="F16">
-        <v>0.9976479790757909</v>
+        <v>1.005475374312835</v>
       </c>
       <c r="G16">
-        <v>1.002184269500919</v>
+        <v>0.9528206949441753</v>
       </c>
       <c r="H16">
-        <v>1.000094516043672</v>
+        <v>1.147926097209534</v>
       </c>
       <c r="I16">
-        <v>0.9998849144804165</v>
+        <v>0.8020426524956088</v>
       </c>
       <c r="J16">
-        <v>1.00083620924042</v>
+        <v>0.8864693610120481</v>
       </c>
       <c r="K16">
-        <v>0.9976479790757909</v>
+        <v>0.8864693610120481</v>
       </c>
       <c r="L16">
-        <v>1.000745611171903</v>
+        <v>1.005475374312835</v>
       </c>
       <c r="M16">
-        <v>1.000790910206162</v>
+        <v>0.9914659846420344</v>
       </c>
       <c r="N16">
-        <v>1.000790910206162</v>
+        <v>0.9914659846420344</v>
       </c>
       <c r="O16">
-        <v>1.000558778818665</v>
+        <v>1.043619355497868</v>
       </c>
       <c r="P16">
-        <v>0.9997432664960381</v>
+        <v>0.9564671100987057</v>
       </c>
       <c r="Q16">
-        <v>0.9997432664960381</v>
+        <v>0.9564671100987057</v>
       </c>
       <c r="R16">
-        <v>0.9992194446409762</v>
+        <v>0.9389676728270413</v>
       </c>
       <c r="S16">
-        <v>0.9992194446409762</v>
+        <v>0.9389676728270413</v>
       </c>
       <c r="T16">
-        <v>1.000232249918853</v>
+        <v>0.9620317958242391</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002337868487474</v>
+        <v>0.9990455326772268</v>
       </c>
       <c r="D17">
-        <v>0.9985628074914474</v>
+        <v>0.9017896033027779</v>
       </c>
       <c r="E17">
-        <v>0.9996288682287717</v>
+        <v>0.9990455326772268</v>
       </c>
       <c r="F17">
-        <v>1.002337868487474</v>
+        <v>1.007121219169848</v>
       </c>
       <c r="G17">
-        <v>0.9954466472691071</v>
+        <v>0.9631472447264644</v>
       </c>
       <c r="H17">
-        <v>1.000345842968489</v>
+        <v>1.116803069710014</v>
       </c>
       <c r="I17">
-        <v>1.000177616122483</v>
+        <v>0.8416716016423489</v>
       </c>
       <c r="J17">
-        <v>0.9985628074914474</v>
+        <v>0.9017896033027779</v>
       </c>
       <c r="K17">
-        <v>1.002337868487474</v>
+        <v>0.9017896033027779</v>
       </c>
       <c r="L17">
-        <v>0.9996288682287717</v>
+        <v>1.007121219169848</v>
       </c>
       <c r="M17">
-        <v>0.9990958378601096</v>
+        <v>1.003083375923537</v>
       </c>
       <c r="N17">
-        <v>0.9990958378601096</v>
+        <v>1.003083375923537</v>
       </c>
       <c r="O17">
-        <v>0.9995125062295692</v>
+        <v>1.04098994051903</v>
       </c>
       <c r="P17">
-        <v>1.000176514735898</v>
+        <v>0.9693187850499508</v>
       </c>
       <c r="Q17">
-        <v>1.000176514735898</v>
+        <v>0.9693187850499508</v>
       </c>
       <c r="R17">
-        <v>1.000716853173792</v>
+        <v>0.9524364896131576</v>
       </c>
       <c r="S17">
-        <v>1.000716853173792</v>
+        <v>0.9524364896131576</v>
       </c>
       <c r="T17">
-        <v>0.999416608427962</v>
+        <v>0.9715963785381133</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9928618327267746</v>
+        <v>1.041600918211838</v>
       </c>
       <c r="D18">
-        <v>1.001758959827723</v>
+        <v>0.9345832903970578</v>
       </c>
       <c r="E18">
-        <v>1.001400365844473</v>
+        <v>1.041600918211838</v>
       </c>
       <c r="F18">
-        <v>0.9928618327267746</v>
+        <v>1.009696233565789</v>
       </c>
       <c r="G18">
-        <v>1.004029103491647</v>
+        <v>0.9838772063219778</v>
       </c>
       <c r="H18">
-        <v>1.002570987729354</v>
+        <v>1.053986435266461</v>
       </c>
       <c r="I18">
-        <v>0.9984744033185616</v>
+        <v>0.9210364381160911</v>
       </c>
       <c r="J18">
-        <v>1.001758959827723</v>
+        <v>0.9345832903970578</v>
       </c>
       <c r="K18">
-        <v>0.9928618327267746</v>
+        <v>0.9345832903970578</v>
       </c>
       <c r="L18">
-        <v>1.001400365844473</v>
+        <v>1.009696233565789</v>
       </c>
       <c r="M18">
-        <v>1.001579662836098</v>
+        <v>1.025648575888813</v>
       </c>
       <c r="N18">
-        <v>1.001579662836098</v>
+        <v>1.025648575888813</v>
       </c>
       <c r="O18">
-        <v>1.001910104467183</v>
+        <v>1.035094529014696</v>
       </c>
       <c r="P18">
-        <v>0.9986737194663234</v>
+        <v>0.9952934807248949</v>
       </c>
       <c r="Q18">
-        <v>0.9986737194663234</v>
+        <v>0.9952934807248949</v>
       </c>
       <c r="R18">
-        <v>0.9972207477814362</v>
+        <v>0.9801159331429357</v>
       </c>
       <c r="S18">
-        <v>0.9972207477814362</v>
+        <v>0.9801159331429357</v>
       </c>
       <c r="T18">
-        <v>1.000182608823089</v>
+        <v>0.9907967536465357</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9957675069761819</v>
+      </c>
+      <c r="D19">
+        <v>0.8908640734497695</v>
+      </c>
+      <c r="E19">
+        <v>0.9957675069761819</v>
+      </c>
+      <c r="F19">
+        <v>1.036642699094571</v>
+      </c>
+      <c r="G19">
+        <v>0.989105253896945</v>
+      </c>
+      <c r="H19">
+        <v>1.061106065469326</v>
+      </c>
+      <c r="I19">
+        <v>0.9087829907812423</v>
+      </c>
+      <c r="J19">
+        <v>0.8908640734497695</v>
+      </c>
+      <c r="K19">
+        <v>0.8908640734497695</v>
+      </c>
+      <c r="L19">
+        <v>1.036642699094571</v>
+      </c>
+      <c r="M19">
+        <v>1.016205103035376</v>
+      </c>
+      <c r="N19">
+        <v>1.016205103035376</v>
+      </c>
+      <c r="O19">
+        <v>1.031172090513359</v>
+      </c>
+      <c r="P19">
+        <v>0.974424759840174</v>
+      </c>
+      <c r="Q19">
+        <v>0.974424759840174</v>
+      </c>
+      <c r="R19">
+        <v>0.9535345882425729</v>
+      </c>
+      <c r="S19">
+        <v>0.9535345882425729</v>
+      </c>
+      <c r="T19">
+        <v>0.9803780982780058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000836209240421</v>
+      </c>
+      <c r="D20">
+        <v>0.9976479790757908</v>
+      </c>
+      <c r="E20">
+        <v>1.000836209240421</v>
+      </c>
+      <c r="F20">
+        <v>1.000745611171903</v>
+      </c>
+      <c r="G20">
+        <v>0.9998849144804164</v>
+      </c>
+      <c r="H20">
+        <v>1.000094516043672</v>
+      </c>
+      <c r="I20">
+        <v>1.002184269500918</v>
+      </c>
+      <c r="J20">
+        <v>0.9976479790757908</v>
+      </c>
+      <c r="K20">
+        <v>0.9976479790757908</v>
+      </c>
+      <c r="L20">
+        <v>1.000745611171903</v>
+      </c>
+      <c r="M20">
+        <v>1.000790910206162</v>
+      </c>
+      <c r="N20">
+        <v>1.000790910206162</v>
+      </c>
+      <c r="O20">
+        <v>1.000558778818665</v>
+      </c>
+      <c r="P20">
+        <v>0.9997432664960382</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997432664960382</v>
+      </c>
+      <c r="R20">
+        <v>0.9992194446409763</v>
+      </c>
+      <c r="S20">
+        <v>0.9992194446409763</v>
+      </c>
+      <c r="T20">
+        <v>1.000232249918854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9985628074914477</v>
+      </c>
+      <c r="D21">
+        <v>1.002337868487474</v>
+      </c>
+      <c r="E21">
+        <v>0.9985628074914477</v>
+      </c>
+      <c r="F21">
+        <v>0.9996288682287721</v>
+      </c>
+      <c r="G21">
+        <v>1.000177616122483</v>
+      </c>
+      <c r="H21">
+        <v>1.000345842968489</v>
+      </c>
+      <c r="I21">
+        <v>0.9954466472691071</v>
+      </c>
+      <c r="J21">
+        <v>1.002337868487474</v>
+      </c>
+      <c r="K21">
+        <v>1.002337868487474</v>
+      </c>
+      <c r="L21">
+        <v>0.9996288682287721</v>
+      </c>
+      <c r="M21">
+        <v>0.9990958378601098</v>
+      </c>
+      <c r="N21">
+        <v>0.9990958378601098</v>
+      </c>
+      <c r="O21">
+        <v>0.9995125062295696</v>
+      </c>
+      <c r="P21">
+        <v>1.000176514735898</v>
+      </c>
+      <c r="Q21">
+        <v>1.000176514735898</v>
+      </c>
+      <c r="R21">
+        <v>1.000716853173792</v>
+      </c>
+      <c r="S21">
+        <v>1.000716853173792</v>
+      </c>
+      <c r="T21">
+        <v>0.999416608427962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001758959827723</v>
+      </c>
+      <c r="D22">
+        <v>0.9928618327267746</v>
+      </c>
+      <c r="E22">
+        <v>1.001758959827723</v>
+      </c>
+      <c r="F22">
+        <v>1.001400365844472</v>
+      </c>
+      <c r="G22">
+        <v>0.9984744033185619</v>
+      </c>
+      <c r="H22">
+        <v>1.002570987729354</v>
+      </c>
+      <c r="I22">
+        <v>1.004029103491647</v>
+      </c>
+      <c r="J22">
+        <v>0.9928618327267746</v>
+      </c>
+      <c r="K22">
+        <v>0.9928618327267746</v>
+      </c>
+      <c r="L22">
+        <v>1.001400365844472</v>
+      </c>
+      <c r="M22">
+        <v>1.001579662836098</v>
+      </c>
+      <c r="N22">
+        <v>1.001579662836098</v>
+      </c>
+      <c r="O22">
+        <v>1.001910104467183</v>
+      </c>
+      <c r="P22">
+        <v>0.9986737194663232</v>
+      </c>
+      <c r="Q22">
+        <v>0.9986737194663232</v>
+      </c>
+      <c r="R22">
+        <v>0.9972207477814361</v>
+      </c>
+      <c r="S22">
+        <v>0.9972207477814361</v>
+      </c>
+      <c r="T22">
+        <v>1.000182608823089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.007944169199722</v>
+      </c>
+      <c r="D23">
         <v>0.9702448871771361</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>1.007944169199722</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>1.006734254332805</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>0.9963521264310542</v>
+      </c>
+      <c r="H23">
+        <v>1.00762604129156</v>
+      </c>
+      <c r="I23">
+        <v>1.01875516853107</v>
+      </c>
+      <c r="J23">
         <v>0.9702448871771361</v>
       </c>
-      <c r="G19">
-        <v>1.01875516853107</v>
-      </c>
-      <c r="H19">
-        <v>1.007626041291561</v>
-      </c>
-      <c r="I19">
-        <v>0.9963521264310542</v>
-      </c>
-      <c r="J19">
-        <v>1.007944169199722</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9702448871771361</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.006734254332805</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.007339211766264</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.007339211766264</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.007434821608029</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9949744369032212</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9949744369032212</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9887920494717</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9887920494717</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.001276107827225</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9966887985497479</v>
+        <v>1.027761060787179</v>
       </c>
       <c r="D3">
-        <v>0.9939724034263243</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="E3">
-        <v>0.9966887985497479</v>
+        <v>1.027761060787179</v>
       </c>
       <c r="F3">
-        <v>1.000693919062571</v>
+        <v>1.017840511066283</v>
       </c>
       <c r="G3">
-        <v>0.9975529482114194</v>
+        <v>0.9845720861671463</v>
       </c>
       <c r="H3">
-        <v>1.007845501892235</v>
+        <v>1.05875961545677</v>
       </c>
       <c r="I3">
-        <v>0.989515745521539</v>
+        <v>0.9054168276080694</v>
       </c>
       <c r="J3">
-        <v>0.9939724034263243</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="K3">
-        <v>0.9939724034263243</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="L3">
-        <v>1.000693919062571</v>
+        <v>1.017840511066283</v>
       </c>
       <c r="M3">
-        <v>0.9986913588061594</v>
+        <v>1.022800785926731</v>
       </c>
       <c r="N3">
-        <v>0.9986913588061594</v>
+        <v>1.022800785926731</v>
       </c>
       <c r="O3">
-        <v>1.001742739834851</v>
+        <v>1.034787062436744</v>
       </c>
       <c r="P3">
-        <v>0.9971183736795477</v>
+        <v>0.9895896022436602</v>
       </c>
       <c r="Q3">
-        <v>0.9971183736795477</v>
+        <v>0.9895896022436602</v>
       </c>
       <c r="R3">
-        <v>0.9963318811162418</v>
+        <v>0.9729840104021249</v>
       </c>
       <c r="S3">
-        <v>0.9963318811162418</v>
+        <v>0.9729840104021249</v>
       </c>
       <c r="T3">
-        <v>0.9977115527773061</v>
+        <v>0.986252889327161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9950267695014033</v>
+        <v>1.035602940664776</v>
       </c>
       <c r="D4">
-        <v>0.9894521664842243</v>
+        <v>0.9273909072884815</v>
       </c>
       <c r="E4">
-        <v>0.9950267695014033</v>
+        <v>1.035602940664776</v>
       </c>
       <c r="F4">
-        <v>1.00070804397502</v>
+        <v>1.014122470512482</v>
       </c>
       <c r="G4">
-        <v>0.9952368444042927</v>
+        <v>0.9842632398089801</v>
       </c>
       <c r="H4">
-        <v>1.01494540532494</v>
+        <v>1.056382078667719</v>
       </c>
       <c r="I4">
-        <v>0.9795415742781129</v>
+        <v>0.9145343200341041</v>
       </c>
       <c r="J4">
-        <v>0.9894521664842243</v>
+        <v>0.9273909072884815</v>
       </c>
       <c r="K4">
-        <v>0.9894521664842243</v>
+        <v>0.9273909072884815</v>
       </c>
       <c r="L4">
-        <v>1.00070804397502</v>
+        <v>1.014122470512482</v>
       </c>
       <c r="M4">
-        <v>0.9978674067382116</v>
+        <v>1.024862705588629</v>
       </c>
       <c r="N4">
-        <v>0.9978674067382116</v>
+        <v>1.024862705588629</v>
       </c>
       <c r="O4">
-        <v>1.003560072933788</v>
+        <v>1.035369163281659</v>
       </c>
       <c r="P4">
-        <v>0.9950623266535491</v>
+        <v>0.9923721061552465</v>
       </c>
       <c r="Q4">
-        <v>0.9950623266535491</v>
+        <v>0.9923721061552465</v>
       </c>
       <c r="R4">
-        <v>0.9936597866112179</v>
+        <v>0.9761268064385553</v>
       </c>
       <c r="S4">
-        <v>0.9936597866112179</v>
+        <v>0.9761268064385553</v>
       </c>
       <c r="T4">
-        <v>0.9958184673279989</v>
+        <v>0.9887159928294239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9881198104934729</v>
+        <v>1.012970460002695</v>
       </c>
       <c r="D5">
-        <v>0.9778946787286684</v>
+        <v>0.9158841848247983</v>
       </c>
       <c r="E5">
-        <v>0.9881198104934729</v>
+        <v>1.012970460002695</v>
       </c>
       <c r="F5">
-        <v>1.002797895988164</v>
+        <v>1.024671162183289</v>
       </c>
       <c r="G5">
-        <v>0.9908233248097845</v>
+        <v>0.9851359122371975</v>
       </c>
       <c r="H5">
-        <v>1.028972992325148</v>
+        <v>1.063168142021563</v>
       </c>
       <c r="I5">
-        <v>0.9614177760451899</v>
+        <v>0.8877353108463618</v>
       </c>
       <c r="J5">
-        <v>0.9778946787286684</v>
+        <v>0.9158841848247983</v>
       </c>
       <c r="K5">
-        <v>0.9778946787286684</v>
+        <v>0.9158841848247983</v>
       </c>
       <c r="L5">
-        <v>1.002797895988164</v>
+        <v>1.024671162183289</v>
       </c>
       <c r="M5">
-        <v>0.9954588532408186</v>
+        <v>1.018820811092992</v>
       </c>
       <c r="N5">
-        <v>0.9954588532408186</v>
+        <v>1.018820811092992</v>
       </c>
       <c r="O5">
-        <v>1.006630232935595</v>
+        <v>1.033603254735849</v>
       </c>
       <c r="P5">
-        <v>0.9896041284034353</v>
+        <v>0.9845086023369275</v>
       </c>
       <c r="Q5">
-        <v>0.9896041284034353</v>
+        <v>0.9845086023369275</v>
       </c>
       <c r="R5">
-        <v>0.9866767659847435</v>
+        <v>0.9673524979588952</v>
       </c>
       <c r="S5">
-        <v>0.9866767659847435</v>
+        <v>0.9673524979588952</v>
       </c>
       <c r="T5">
-        <v>0.991671079731738</v>
+        <v>0.9815941953526508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9749182692553735</v>
+        <v>0.9992818067465904</v>
       </c>
       <c r="D6">
-        <v>0.9728525610313338</v>
+        <v>0.9099618453977284</v>
       </c>
       <c r="E6">
-        <v>0.9749182692553735</v>
+        <v>0.9992818067465904</v>
       </c>
       <c r="F6">
-        <v>1.005695711467077</v>
+        <v>1.030775037386363</v>
       </c>
       <c r="G6">
-        <v>0.9837609309837915</v>
+        <v>0.9856353540909086</v>
       </c>
       <c r="H6">
-        <v>1.0448655267686</v>
+        <v>1.067157499204545</v>
       </c>
       <c r="I6">
-        <v>0.944987151106472</v>
+        <v>0.870790392022727</v>
       </c>
       <c r="J6">
-        <v>0.9728525610313338</v>
+        <v>0.9099618453977284</v>
       </c>
       <c r="K6">
-        <v>0.9728525610313338</v>
+        <v>0.9099618453977284</v>
       </c>
       <c r="L6">
-        <v>1.005695711467077</v>
+        <v>1.030775037386363</v>
       </c>
       <c r="M6">
-        <v>0.9903069903612254</v>
+        <v>1.015028422066477</v>
       </c>
       <c r="N6">
-        <v>0.9903069903612254</v>
+        <v>1.015028422066477</v>
       </c>
       <c r="O6">
-        <v>1.008493169163684</v>
+        <v>1.032404781112499</v>
       </c>
       <c r="P6">
-        <v>0.9844888472512615</v>
+        <v>0.9800062298435606</v>
       </c>
       <c r="Q6">
-        <v>0.9844888472512615</v>
+        <v>0.9800062298435606</v>
       </c>
       <c r="R6">
-        <v>0.9815797756962796</v>
+        <v>0.9624951337321025</v>
       </c>
       <c r="S6">
-        <v>0.9815797756962796</v>
+        <v>0.9624951337321025</v>
       </c>
       <c r="T6">
-        <v>0.9878466917687746</v>
+        <v>0.977266989141477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999154850452475</v>
+        <v>0.1514750037777271</v>
       </c>
       <c r="D7">
-        <v>0.9996325892841583</v>
+        <v>1.653399686553414</v>
       </c>
       <c r="E7">
-        <v>0.9999154850452475</v>
+        <v>0.1514750037777271</v>
       </c>
       <c r="F7">
-        <v>1.0001941398612</v>
+        <v>1.038146166807986</v>
       </c>
       <c r="G7">
-        <v>0.999941372031342</v>
+        <v>1.221418820183384</v>
       </c>
       <c r="H7">
-        <v>1.000306409819421</v>
+        <v>0.5292886789913713</v>
       </c>
       <c r="I7">
-        <v>0.9991991847802123</v>
+        <v>1.088742461050727</v>
       </c>
       <c r="J7">
-        <v>0.9996325892841583</v>
+        <v>1.653399686553414</v>
       </c>
       <c r="K7">
-        <v>0.9996325892841583</v>
+        <v>1.653399686553414</v>
       </c>
       <c r="L7">
-        <v>1.0001941398612</v>
+        <v>1.038146166807986</v>
       </c>
       <c r="M7">
-        <v>1.000054812453224</v>
+        <v>0.5948105852928567</v>
       </c>
       <c r="N7">
-        <v>1.000054812453224</v>
+        <v>0.5948105852928567</v>
       </c>
       <c r="O7">
-        <v>1.000138678241956</v>
+        <v>0.5729699498590283</v>
       </c>
       <c r="P7">
-        <v>0.9999140713968688</v>
+        <v>0.9476736190463756</v>
       </c>
       <c r="Q7">
-        <v>0.9999140713968687</v>
+        <v>0.9476736190463756</v>
       </c>
       <c r="R7">
-        <v>0.9998437008686911</v>
+        <v>1.124105135923135</v>
       </c>
       <c r="S7">
-        <v>0.9998437008686911</v>
+        <v>1.124105135923135</v>
       </c>
       <c r="T7">
-        <v>0.9998648634702637</v>
+        <v>0.9470784695607682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9993011191028796</v>
+        <v>0.1541309739244203</v>
       </c>
       <c r="D8">
-        <v>0.9998887295753114</v>
+        <v>1.651588834646963</v>
       </c>
       <c r="E8">
-        <v>0.9993011191028796</v>
+        <v>0.1541309739244203</v>
       </c>
       <c r="F8">
-        <v>1.000340573711842</v>
+        <v>1.038102202874398</v>
       </c>
       <c r="G8">
-        <v>0.9999267204332899</v>
+        <v>1.220301463699015</v>
       </c>
       <c r="H8">
-        <v>1.000442245214767</v>
+        <v>0.5318965092460883</v>
       </c>
       <c r="I8">
-        <v>0.9980723244570099</v>
+        <v>1.084798484114686</v>
       </c>
       <c r="J8">
-        <v>0.9998887295753114</v>
+        <v>1.651588834646963</v>
       </c>
       <c r="K8">
-        <v>0.9998887295753114</v>
+        <v>1.651588834646963</v>
       </c>
       <c r="L8">
-        <v>1.000340573711842</v>
+        <v>1.038102202874398</v>
       </c>
       <c r="M8">
-        <v>0.9998208464073608</v>
+        <v>0.5961165883994091</v>
       </c>
       <c r="N8">
-        <v>0.9998208464073608</v>
+        <v>0.5961165883994091</v>
       </c>
       <c r="O8">
-        <v>1.000027979343163</v>
+        <v>0.5747098953483022</v>
       </c>
       <c r="P8">
-        <v>0.9998434741300111</v>
+        <v>0.947940670481927</v>
       </c>
       <c r="Q8">
-        <v>0.9998434741300111</v>
+        <v>0.947940670481927</v>
       </c>
       <c r="R8">
-        <v>0.9998547879913362</v>
+        <v>1.123852711523186</v>
       </c>
       <c r="S8">
-        <v>0.9998547879913362</v>
+        <v>1.123852711523186</v>
       </c>
       <c r="T8">
-        <v>0.9996619520825166</v>
+        <v>0.9468030780842615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9991544355915257</v>
+        <v>0.157046430823496</v>
       </c>
       <c r="D9">
-        <v>1.001117409902058</v>
+        <v>1.646412888620854</v>
       </c>
       <c r="E9">
-        <v>0.9991544355915257</v>
+        <v>0.157046430823496</v>
       </c>
       <c r="F9">
-        <v>0.9998563338440616</v>
+        <v>1.039532183737558</v>
       </c>
       <c r="G9">
-        <v>0.9998559330746394</v>
+        <v>1.219452343200469</v>
       </c>
       <c r="H9">
-        <v>1.000570730617331</v>
+        <v>0.5343994118282723</v>
       </c>
       <c r="I9">
-        <v>0.9967842133715248</v>
+        <v>1.082923670111391</v>
       </c>
       <c r="J9">
-        <v>1.001117409902058</v>
+        <v>1.646412888620854</v>
       </c>
       <c r="K9">
-        <v>1.001117409902058</v>
+        <v>1.646412888620854</v>
       </c>
       <c r="L9">
-        <v>0.9998563338440616</v>
+        <v>1.039532183737558</v>
       </c>
       <c r="M9">
-        <v>0.9995053847177937</v>
+        <v>0.5982893072805271</v>
       </c>
       <c r="N9">
-        <v>0.9995053847177937</v>
+        <v>0.5982893072805271</v>
       </c>
       <c r="O9">
-        <v>0.9998605000176394</v>
+        <v>0.5769926754631088</v>
       </c>
       <c r="P9">
-        <v>1.000042726445882</v>
+        <v>0.9476638343939694</v>
       </c>
       <c r="Q9">
-        <v>1.000042726445882</v>
+        <v>0.9476638343939694</v>
       </c>
       <c r="R9">
-        <v>1.000311397309926</v>
+        <v>1.122351097950691</v>
       </c>
       <c r="S9">
-        <v>1.000311397309926</v>
+        <v>1.122351097950691</v>
       </c>
       <c r="T9">
-        <v>0.99955650940019</v>
+        <v>0.9466278213870067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9977333200879432</v>
+        <v>0.1608216911635339</v>
       </c>
       <c r="D10">
-        <v>1.000752933880836</v>
+        <v>1.653141437005259</v>
       </c>
       <c r="E10">
-        <v>0.9977333200879432</v>
+        <v>0.1608216911635339</v>
       </c>
       <c r="F10">
-        <v>1.000423364245246</v>
+        <v>1.036921448979908</v>
       </c>
       <c r="G10">
-        <v>0.9997220763587107</v>
+        <v>1.217403191182454</v>
       </c>
       <c r="H10">
-        <v>1.001399587189502</v>
+        <v>0.5370171255856915</v>
       </c>
       <c r="I10">
-        <v>0.9936973903961233</v>
+        <v>1.072675415826965</v>
       </c>
       <c r="J10">
-        <v>1.000752933880836</v>
+        <v>1.653141437005259</v>
       </c>
       <c r="K10">
-        <v>1.000752933880836</v>
+        <v>1.653141437005259</v>
       </c>
       <c r="L10">
-        <v>1.000423364245246</v>
+        <v>1.036921448979908</v>
       </c>
       <c r="M10">
-        <v>0.9990783421665945</v>
+        <v>0.5988715700717209</v>
       </c>
       <c r="N10">
-        <v>0.9990783421665945</v>
+        <v>0.5988715700717209</v>
       </c>
       <c r="O10">
-        <v>0.9998520905075639</v>
+        <v>0.5782534219097111</v>
       </c>
       <c r="P10">
-        <v>0.999636539404675</v>
+        <v>0.950294859049567</v>
       </c>
       <c r="Q10">
-        <v>0.999636539404675</v>
+        <v>0.950294859049567</v>
       </c>
       <c r="R10">
-        <v>0.9999156380237153</v>
+        <v>1.12600650353849</v>
       </c>
       <c r="S10">
-        <v>0.9999156380237153</v>
+        <v>1.12600650353849</v>
       </c>
       <c r="T10">
-        <v>0.9989547786930603</v>
+        <v>0.9463300516239688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9959752148608054</v>
+        <v>0.9946235845185235</v>
       </c>
       <c r="D11">
-        <v>1.005610808024662</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="E11">
-        <v>0.9959752148608054</v>
+        <v>0.9946235845185235</v>
       </c>
       <c r="F11">
-        <v>0.9990906160810122</v>
+        <v>0.9987952715743096</v>
       </c>
       <c r="G11">
-        <v>0.9995834569188476</v>
+        <v>0.9982685716944655</v>
       </c>
       <c r="H11">
-        <v>1.001729530300203</v>
+        <v>1.006355265067157</v>
       </c>
       <c r="I11">
-        <v>0.9875298302134751</v>
+        <v>0.9869691700145405</v>
       </c>
       <c r="J11">
-        <v>1.005610808024662</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="K11">
-        <v>1.005610808024662</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="L11">
-        <v>0.9990906160810122</v>
+        <v>0.9987952715743096</v>
       </c>
       <c r="M11">
-        <v>0.9975329154709088</v>
+        <v>0.9967094280464166</v>
       </c>
       <c r="N11">
-        <v>0.9975329154709088</v>
+        <v>0.9967094280464166</v>
       </c>
       <c r="O11">
-        <v>0.9989317870806733</v>
+        <v>0.9999247070533301</v>
       </c>
       <c r="P11">
-        <v>1.00022554632216</v>
+        <v>0.9976562681602341</v>
       </c>
       <c r="Q11">
-        <v>1.00022554632216</v>
+        <v>0.9976562681602341</v>
       </c>
       <c r="R11">
-        <v>1.001571861747786</v>
+        <v>0.9981296882171429</v>
       </c>
       <c r="S11">
-        <v>1.001571861747786</v>
+        <v>0.9981296882171429</v>
       </c>
       <c r="T11">
-        <v>0.9982532427331677</v>
+        <v>0.9974269685428109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8719239238809947</v>
+        <v>0.9948082823815408</v>
       </c>
       <c r="D12">
-        <v>1.012461433004076</v>
+        <v>0.999536595986159</v>
       </c>
       <c r="E12">
-        <v>0.8719239238809947</v>
+        <v>0.9948082823815408</v>
       </c>
       <c r="F12">
-        <v>1.019430561912298</v>
+        <v>1.000857438475736</v>
       </c>
       <c r="G12">
-        <v>1.014842993093235</v>
+        <v>0.9999914617486959</v>
       </c>
       <c r="H12">
-        <v>1.031253835925272</v>
+        <v>1.00134080460753</v>
       </c>
       <c r="I12">
-        <v>0.8129922066431101</v>
+        <v>0.9959753712143817</v>
       </c>
       <c r="J12">
-        <v>1.012461433004076</v>
+        <v>0.999536595986159</v>
       </c>
       <c r="K12">
-        <v>1.012461433004076</v>
+        <v>0.999536595986159</v>
       </c>
       <c r="L12">
-        <v>1.019430561912298</v>
+        <v>1.000857438475736</v>
       </c>
       <c r="M12">
-        <v>0.9456772428966465</v>
+        <v>0.9978328604286384</v>
       </c>
       <c r="N12">
-        <v>0.9456772428966465</v>
+        <v>0.9978328604286384</v>
       </c>
       <c r="O12">
-        <v>0.9742027739061884</v>
+        <v>0.9990021751549355</v>
       </c>
       <c r="P12">
-        <v>0.9679386395991232</v>
+        <v>0.9984007722811453</v>
       </c>
       <c r="Q12">
-        <v>0.9679386395991232</v>
+        <v>0.9984007722811453</v>
       </c>
       <c r="R12">
-        <v>0.9790693379503614</v>
+        <v>0.9986847282073987</v>
       </c>
       <c r="S12">
-        <v>0.9790693379503614</v>
+        <v>0.9986847282073987</v>
       </c>
       <c r="T12">
-        <v>0.9604841590764979</v>
+        <v>0.9987516590690072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.167695709703199</v>
+        <v>0.981217693703483</v>
       </c>
       <c r="D13">
-        <v>1.041518828479052</v>
+        <v>0.9952754546960265</v>
       </c>
       <c r="E13">
-        <v>1.167695709703199</v>
+        <v>0.981217693703483</v>
       </c>
       <c r="F13">
-        <v>0.9287705550867932</v>
+        <v>1.004437305566556</v>
       </c>
       <c r="G13">
-        <v>0.9643769858330019</v>
+        <v>1.000579438149767</v>
       </c>
       <c r="H13">
-        <v>1.00542605858868</v>
+        <v>1.004137284191177</v>
       </c>
       <c r="I13">
-        <v>1.118066966595249</v>
+        <v>0.9882299260228156</v>
       </c>
       <c r="J13">
-        <v>1.041518828479052</v>
+        <v>0.9952754546960265</v>
       </c>
       <c r="K13">
-        <v>1.041518828479052</v>
+        <v>0.9952754546960265</v>
       </c>
       <c r="L13">
-        <v>0.9287705550867932</v>
+        <v>1.004437305566556</v>
       </c>
       <c r="M13">
-        <v>1.048233132394996</v>
+        <v>0.9928274996350195</v>
       </c>
       <c r="N13">
-        <v>1.048233132394996</v>
+        <v>0.9928274996350195</v>
       </c>
       <c r="O13">
-        <v>1.033964107792891</v>
+        <v>0.9965974278204054</v>
       </c>
       <c r="P13">
-        <v>1.045995031089681</v>
+        <v>0.9936434846553551</v>
       </c>
       <c r="Q13">
-        <v>1.045995031089681</v>
+        <v>0.9936434846553551</v>
       </c>
       <c r="R13">
-        <v>1.044875980437024</v>
+        <v>0.994051477165523</v>
       </c>
       <c r="S13">
-        <v>1.044875980437024</v>
+        <v>0.994051477165523</v>
       </c>
       <c r="T13">
-        <v>1.037642517380996</v>
+        <v>0.9956461837216374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.854160915451609</v>
+        <v>0.9928958660130789</v>
       </c>
       <c r="D14">
-        <v>0.4099686589766471</v>
+        <v>0.9832310415028744</v>
       </c>
       <c r="E14">
-        <v>1.854160915451609</v>
+        <v>0.9928958660130789</v>
       </c>
       <c r="F14">
-        <v>1.043768894579783</v>
+        <v>1.001789271073817</v>
       </c>
       <c r="G14">
-        <v>0.8593119149466725</v>
+        <v>0.9934449941904033</v>
       </c>
       <c r="H14">
-        <v>1.1674583238723</v>
+        <v>1.021331843661014</v>
       </c>
       <c r="I14">
-        <v>1.568698496237104</v>
+        <v>0.9707704416662191</v>
       </c>
       <c r="J14">
-        <v>0.4099686589766471</v>
+        <v>0.9832310415028744</v>
       </c>
       <c r="K14">
-        <v>0.4099686589766471</v>
+        <v>0.9832310415028744</v>
       </c>
       <c r="L14">
-        <v>1.043768894579783</v>
+        <v>1.001789271073817</v>
       </c>
       <c r="M14">
-        <v>1.448964905015696</v>
+        <v>0.9973425685434479</v>
       </c>
       <c r="N14">
-        <v>1.448964905015696</v>
+        <v>0.9973425685434479</v>
       </c>
       <c r="O14">
-        <v>1.355129377967898</v>
+        <v>1.005338993582636</v>
       </c>
       <c r="P14">
-        <v>1.10263282300268</v>
+        <v>0.99263872619659</v>
       </c>
       <c r="Q14">
-        <v>1.10263282300268</v>
+        <v>0.99263872619659</v>
       </c>
       <c r="R14">
-        <v>0.9294667819961716</v>
+        <v>0.9902868050231611</v>
       </c>
       <c r="S14">
-        <v>0.9294667819961716</v>
+        <v>0.9902868050231611</v>
       </c>
       <c r="T14">
-        <v>1.150561200677353</v>
+        <v>0.9939105763512344</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.702129702947961</v>
+        <v>0.9966887985497479</v>
       </c>
       <c r="D15">
-        <v>1.102088880422162</v>
+        <v>0.9939724034263243</v>
       </c>
       <c r="E15">
-        <v>0.702129702947961</v>
+        <v>0.9966887985497479</v>
       </c>
       <c r="F15">
-        <v>1.014844709945246</v>
+        <v>1.000693919062571</v>
       </c>
       <c r="G15">
-        <v>1.042164527345565</v>
+        <v>0.9975529482114194</v>
       </c>
       <c r="H15">
-        <v>1.034614917364419</v>
+        <v>1.007845501892235</v>
       </c>
       <c r="I15">
-        <v>0.5578103691142329</v>
+        <v>0.989515745521539</v>
       </c>
       <c r="J15">
-        <v>1.102088880422162</v>
+        <v>0.9939724034263243</v>
       </c>
       <c r="K15">
-        <v>1.102088880422162</v>
+        <v>0.9939724034263243</v>
       </c>
       <c r="L15">
-        <v>1.014844709945246</v>
+        <v>1.000693919062571</v>
       </c>
       <c r="M15">
-        <v>0.8584872064466033</v>
+        <v>0.9986913588061594</v>
       </c>
       <c r="N15">
-        <v>0.8584872064466033</v>
+        <v>0.9986913588061594</v>
       </c>
       <c r="O15">
-        <v>0.9171964434192086</v>
+        <v>1.001742739834851</v>
       </c>
       <c r="P15">
-        <v>0.9396877644384563</v>
+        <v>0.9971183736795477</v>
       </c>
       <c r="Q15">
-        <v>0.9396877644384563</v>
+        <v>0.9971183736795477</v>
       </c>
       <c r="R15">
-        <v>0.9802880434343828</v>
+        <v>0.9963318811162418</v>
       </c>
       <c r="S15">
-        <v>0.9802880434343828</v>
+        <v>0.9963318811162418</v>
       </c>
       <c r="T15">
-        <v>0.9089421845232644</v>
+        <v>0.9977115527773061</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9774565949712338</v>
+        <v>0.9950267695014033</v>
       </c>
       <c r="D16">
-        <v>0.8864693610120481</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="E16">
-        <v>0.9774565949712338</v>
+        <v>0.9950267695014033</v>
       </c>
       <c r="F16">
-        <v>1.005475374312835</v>
+        <v>1.00070804397502</v>
       </c>
       <c r="G16">
-        <v>0.9528206949441753</v>
+        <v>0.9952368444042927</v>
       </c>
       <c r="H16">
-        <v>1.147926097209534</v>
+        <v>1.01494540532494</v>
       </c>
       <c r="I16">
-        <v>0.8020426524956088</v>
+        <v>0.9795415742781129</v>
       </c>
       <c r="J16">
-        <v>0.8864693610120481</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="K16">
-        <v>0.8864693610120481</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="L16">
-        <v>1.005475374312835</v>
+        <v>1.00070804397502</v>
       </c>
       <c r="M16">
-        <v>0.9914659846420344</v>
+        <v>0.9978674067382116</v>
       </c>
       <c r="N16">
-        <v>0.9914659846420344</v>
+        <v>0.9978674067382116</v>
       </c>
       <c r="O16">
-        <v>1.043619355497868</v>
+        <v>1.003560072933788</v>
       </c>
       <c r="P16">
-        <v>0.9564671100987057</v>
+        <v>0.9950623266535491</v>
       </c>
       <c r="Q16">
-        <v>0.9564671100987057</v>
+        <v>0.9950623266535491</v>
       </c>
       <c r="R16">
-        <v>0.9389676728270413</v>
+        <v>0.9936597866112179</v>
       </c>
       <c r="S16">
-        <v>0.9389676728270413</v>
+        <v>0.9936597866112179</v>
       </c>
       <c r="T16">
-        <v>0.9620317958242391</v>
+        <v>0.9958184673279989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9990455326772268</v>
+        <v>0.9881198104934729</v>
       </c>
       <c r="D17">
-        <v>0.9017896033027779</v>
+        <v>0.9778946787286684</v>
       </c>
       <c r="E17">
-        <v>0.9990455326772268</v>
+        <v>0.9881198104934729</v>
       </c>
       <c r="F17">
-        <v>1.007121219169848</v>
+        <v>1.002797895988164</v>
       </c>
       <c r="G17">
-        <v>0.9631472447264644</v>
+        <v>0.9908233248097845</v>
       </c>
       <c r="H17">
-        <v>1.116803069710014</v>
+        <v>1.028972992325148</v>
       </c>
       <c r="I17">
-        <v>0.8416716016423489</v>
+        <v>0.9614177760451899</v>
       </c>
       <c r="J17">
-        <v>0.9017896033027779</v>
+        <v>0.9778946787286684</v>
       </c>
       <c r="K17">
-        <v>0.9017896033027779</v>
+        <v>0.9778946787286684</v>
       </c>
       <c r="L17">
-        <v>1.007121219169848</v>
+        <v>1.002797895988164</v>
       </c>
       <c r="M17">
-        <v>1.003083375923537</v>
+        <v>0.9954588532408186</v>
       </c>
       <c r="N17">
-        <v>1.003083375923537</v>
+        <v>0.9954588532408186</v>
       </c>
       <c r="O17">
-        <v>1.04098994051903</v>
+        <v>1.006630232935595</v>
       </c>
       <c r="P17">
-        <v>0.9693187850499508</v>
+        <v>0.9896041284034353</v>
       </c>
       <c r="Q17">
-        <v>0.9693187850499508</v>
+        <v>0.9896041284034353</v>
       </c>
       <c r="R17">
-        <v>0.9524364896131576</v>
+        <v>0.9866767659847435</v>
       </c>
       <c r="S17">
-        <v>0.9524364896131576</v>
+        <v>0.9866767659847435</v>
       </c>
       <c r="T17">
-        <v>0.9715963785381133</v>
+        <v>0.991671079731738</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.041600918211838</v>
+        <v>0.9749182692553735</v>
       </c>
       <c r="D18">
-        <v>0.9345832903970578</v>
+        <v>0.9728525610313338</v>
       </c>
       <c r="E18">
-        <v>1.041600918211838</v>
+        <v>0.9749182692553735</v>
       </c>
       <c r="F18">
-        <v>1.009696233565789</v>
+        <v>1.005695711467077</v>
       </c>
       <c r="G18">
-        <v>0.9838772063219778</v>
+        <v>0.9837609309837915</v>
       </c>
       <c r="H18">
-        <v>1.053986435266461</v>
+        <v>1.0448655267686</v>
       </c>
       <c r="I18">
-        <v>0.9210364381160911</v>
+        <v>0.944987151106472</v>
       </c>
       <c r="J18">
-        <v>0.9345832903970578</v>
+        <v>0.9728525610313338</v>
       </c>
       <c r="K18">
-        <v>0.9345832903970578</v>
+        <v>0.9728525610313338</v>
       </c>
       <c r="L18">
-        <v>1.009696233565789</v>
+        <v>1.005695711467077</v>
       </c>
       <c r="M18">
-        <v>1.025648575888813</v>
+        <v>0.9903069903612254</v>
       </c>
       <c r="N18">
-        <v>1.025648575888813</v>
+        <v>0.9903069903612254</v>
       </c>
       <c r="O18">
-        <v>1.035094529014696</v>
+        <v>1.008493169163684</v>
       </c>
       <c r="P18">
-        <v>0.9952934807248949</v>
+        <v>0.9844888472512615</v>
       </c>
       <c r="Q18">
-        <v>0.9952934807248949</v>
+        <v>0.9844888472512615</v>
       </c>
       <c r="R18">
-        <v>0.9801159331429357</v>
+        <v>0.9815797756962796</v>
       </c>
       <c r="S18">
-        <v>0.9801159331429357</v>
+        <v>0.9815797756962796</v>
       </c>
       <c r="T18">
-        <v>0.9907967536465357</v>
+        <v>0.9878466917687746</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9957675069761819</v>
+        <v>0.9999154850452475</v>
       </c>
       <c r="D19">
-        <v>0.8908640734497695</v>
+        <v>0.9996325892841583</v>
       </c>
       <c r="E19">
-        <v>0.9957675069761819</v>
+        <v>0.9999154850452475</v>
       </c>
       <c r="F19">
-        <v>1.036642699094571</v>
+        <v>1.0001941398612</v>
       </c>
       <c r="G19">
-        <v>0.989105253896945</v>
+        <v>0.999941372031342</v>
       </c>
       <c r="H19">
-        <v>1.061106065469326</v>
+        <v>1.000306409819421</v>
       </c>
       <c r="I19">
-        <v>0.9087829907812423</v>
+        <v>0.9991991847802123</v>
       </c>
       <c r="J19">
-        <v>0.8908640734497695</v>
+        <v>0.9996325892841583</v>
       </c>
       <c r="K19">
-        <v>0.8908640734497695</v>
+        <v>0.9996325892841583</v>
       </c>
       <c r="L19">
-        <v>1.036642699094571</v>
+        <v>1.0001941398612</v>
       </c>
       <c r="M19">
-        <v>1.016205103035376</v>
+        <v>1.000054812453224</v>
       </c>
       <c r="N19">
-        <v>1.016205103035376</v>
+        <v>1.000054812453224</v>
       </c>
       <c r="O19">
-        <v>1.031172090513359</v>
+        <v>1.000138678241956</v>
       </c>
       <c r="P19">
-        <v>0.974424759840174</v>
+        <v>0.9999140713968688</v>
       </c>
       <c r="Q19">
-        <v>0.974424759840174</v>
+        <v>0.9999140713968687</v>
       </c>
       <c r="R19">
-        <v>0.9535345882425729</v>
+        <v>0.9998437008686911</v>
       </c>
       <c r="S19">
-        <v>0.9535345882425729</v>
+        <v>0.9998437008686911</v>
       </c>
       <c r="T19">
-        <v>0.9803780982780058</v>
+        <v>0.9998648634702637</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000836209240421</v>
+        <v>0.9993011191028796</v>
       </c>
       <c r="D20">
-        <v>0.9976479790757908</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="E20">
-        <v>1.000836209240421</v>
+        <v>0.9993011191028796</v>
       </c>
       <c r="F20">
-        <v>1.000745611171903</v>
+        <v>1.000340573711842</v>
       </c>
       <c r="G20">
-        <v>0.9998849144804164</v>
+        <v>0.9999267204332899</v>
       </c>
       <c r="H20">
-        <v>1.000094516043672</v>
+        <v>1.000442245214767</v>
       </c>
       <c r="I20">
-        <v>1.002184269500918</v>
+        <v>0.9980723244570099</v>
       </c>
       <c r="J20">
-        <v>0.9976479790757908</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="K20">
-        <v>0.9976479790757908</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="L20">
-        <v>1.000745611171903</v>
+        <v>1.000340573711842</v>
       </c>
       <c r="M20">
-        <v>1.000790910206162</v>
+        <v>0.9998208464073608</v>
       </c>
       <c r="N20">
-        <v>1.000790910206162</v>
+        <v>0.9998208464073608</v>
       </c>
       <c r="O20">
-        <v>1.000558778818665</v>
+        <v>1.000027979343163</v>
       </c>
       <c r="P20">
-        <v>0.9997432664960382</v>
+        <v>0.9998434741300111</v>
       </c>
       <c r="Q20">
-        <v>0.9997432664960382</v>
+        <v>0.9998434741300111</v>
       </c>
       <c r="R20">
-        <v>0.9992194446409763</v>
+        <v>0.9998547879913362</v>
       </c>
       <c r="S20">
-        <v>0.9992194446409763</v>
+        <v>0.9998547879913362</v>
       </c>
       <c r="T20">
-        <v>1.000232249918854</v>
+        <v>0.9996619520825166</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9985628074914477</v>
+        <v>0.9991544355915257</v>
       </c>
       <c r="D21">
-        <v>1.002337868487474</v>
+        <v>1.001117409902058</v>
       </c>
       <c r="E21">
-        <v>0.9985628074914477</v>
+        <v>0.9991544355915257</v>
       </c>
       <c r="F21">
-        <v>0.9996288682287721</v>
+        <v>0.9998563338440616</v>
       </c>
       <c r="G21">
-        <v>1.000177616122483</v>
+        <v>0.9998559330746394</v>
       </c>
       <c r="H21">
-        <v>1.000345842968489</v>
+        <v>1.000570730617331</v>
       </c>
       <c r="I21">
-        <v>0.9954466472691071</v>
+        <v>0.9967842133715248</v>
       </c>
       <c r="J21">
-        <v>1.002337868487474</v>
+        <v>1.001117409902058</v>
       </c>
       <c r="K21">
-        <v>1.002337868487474</v>
+        <v>1.001117409902058</v>
       </c>
       <c r="L21">
-        <v>0.9996288682287721</v>
+        <v>0.9998563338440616</v>
       </c>
       <c r="M21">
-        <v>0.9990958378601098</v>
+        <v>0.9995053847177937</v>
       </c>
       <c r="N21">
-        <v>0.9990958378601098</v>
+        <v>0.9995053847177937</v>
       </c>
       <c r="O21">
-        <v>0.9995125062295696</v>
+        <v>0.9998605000176394</v>
       </c>
       <c r="P21">
-        <v>1.000176514735898</v>
+        <v>1.000042726445882</v>
       </c>
       <c r="Q21">
-        <v>1.000176514735898</v>
+        <v>1.000042726445882</v>
       </c>
       <c r="R21">
-        <v>1.000716853173792</v>
+        <v>1.000311397309926</v>
       </c>
       <c r="S21">
-        <v>1.000716853173792</v>
+        <v>1.000311397309926</v>
       </c>
       <c r="T21">
-        <v>0.999416608427962</v>
+        <v>0.99955650940019</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001758959827723</v>
+        <v>0.9977333200879432</v>
       </c>
       <c r="D22">
-        <v>0.9928618327267746</v>
+        <v>1.000752933880836</v>
       </c>
       <c r="E22">
-        <v>1.001758959827723</v>
+        <v>0.9977333200879432</v>
       </c>
       <c r="F22">
-        <v>1.001400365844472</v>
+        <v>1.000423364245246</v>
       </c>
       <c r="G22">
-        <v>0.9984744033185619</v>
+        <v>0.9997220763587107</v>
       </c>
       <c r="H22">
-        <v>1.002570987729354</v>
+        <v>1.001399587189502</v>
       </c>
       <c r="I22">
-        <v>1.004029103491647</v>
+        <v>0.9936973903961233</v>
       </c>
       <c r="J22">
-        <v>0.9928618327267746</v>
+        <v>1.000752933880836</v>
       </c>
       <c r="K22">
-        <v>0.9928618327267746</v>
+        <v>1.000752933880836</v>
       </c>
       <c r="L22">
-        <v>1.001400365844472</v>
+        <v>1.000423364245246</v>
       </c>
       <c r="M22">
-        <v>1.001579662836098</v>
+        <v>0.9990783421665945</v>
       </c>
       <c r="N22">
-        <v>1.001579662836098</v>
+        <v>0.9990783421665945</v>
       </c>
       <c r="O22">
-        <v>1.001910104467183</v>
+        <v>0.9998520905075639</v>
       </c>
       <c r="P22">
-        <v>0.9986737194663232</v>
+        <v>0.999636539404675</v>
       </c>
       <c r="Q22">
-        <v>0.9986737194663232</v>
+        <v>0.999636539404675</v>
       </c>
       <c r="R22">
-        <v>0.9972207477814361</v>
+        <v>0.9999156380237153</v>
       </c>
       <c r="S22">
-        <v>0.9972207477814361</v>
+        <v>0.9999156380237153</v>
       </c>
       <c r="T22">
-        <v>1.000182608823089</v>
+        <v>0.9989547786930603</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9959752148608054</v>
+      </c>
+      <c r="D23">
+        <v>1.005610808024662</v>
+      </c>
+      <c r="E23">
+        <v>0.9959752148608054</v>
+      </c>
+      <c r="F23">
+        <v>0.9990906160810122</v>
+      </c>
+      <c r="G23">
+        <v>0.9995834569188476</v>
+      </c>
+      <c r="H23">
+        <v>1.001729530300203</v>
+      </c>
+      <c r="I23">
+        <v>0.9875298302134751</v>
+      </c>
+      <c r="J23">
+        <v>1.005610808024662</v>
+      </c>
+      <c r="K23">
+        <v>1.005610808024662</v>
+      </c>
+      <c r="L23">
+        <v>0.9990906160810122</v>
+      </c>
+      <c r="M23">
+        <v>0.9975329154709088</v>
+      </c>
+      <c r="N23">
+        <v>0.9975329154709088</v>
+      </c>
+      <c r="O23">
+        <v>0.9989317870806733</v>
+      </c>
+      <c r="P23">
+        <v>1.00022554632216</v>
+      </c>
+      <c r="Q23">
+        <v>1.00022554632216</v>
+      </c>
+      <c r="R23">
+        <v>1.001571861747786</v>
+      </c>
+      <c r="S23">
+        <v>1.001571861747786</v>
+      </c>
+      <c r="T23">
+        <v>0.9982532427331677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.8719239238809947</v>
+      </c>
+      <c r="D24">
+        <v>1.012461433004076</v>
+      </c>
+      <c r="E24">
+        <v>0.8719239238809947</v>
+      </c>
+      <c r="F24">
+        <v>1.019430561912298</v>
+      </c>
+      <c r="G24">
+        <v>1.014842993093235</v>
+      </c>
+      <c r="H24">
+        <v>1.031253835925272</v>
+      </c>
+      <c r="I24">
+        <v>0.8129922066431101</v>
+      </c>
+      <c r="J24">
+        <v>1.012461433004076</v>
+      </c>
+      <c r="K24">
+        <v>1.012461433004076</v>
+      </c>
+      <c r="L24">
+        <v>1.019430561912298</v>
+      </c>
+      <c r="M24">
+        <v>0.9456772428966465</v>
+      </c>
+      <c r="N24">
+        <v>0.9456772428966465</v>
+      </c>
+      <c r="O24">
+        <v>0.9742027739061884</v>
+      </c>
+      <c r="P24">
+        <v>0.9679386395991232</v>
+      </c>
+      <c r="Q24">
+        <v>0.9679386395991232</v>
+      </c>
+      <c r="R24">
+        <v>0.9790693379503614</v>
+      </c>
+      <c r="S24">
+        <v>0.9790693379503614</v>
+      </c>
+      <c r="T24">
+        <v>0.9604841590764979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.167695709703199</v>
+      </c>
+      <c r="D25">
+        <v>1.041518828479052</v>
+      </c>
+      <c r="E25">
+        <v>1.167695709703199</v>
+      </c>
+      <c r="F25">
+        <v>0.9287705550867932</v>
+      </c>
+      <c r="G25">
+        <v>0.9643769858330019</v>
+      </c>
+      <c r="H25">
+        <v>1.00542605858868</v>
+      </c>
+      <c r="I25">
+        <v>1.118066966595249</v>
+      </c>
+      <c r="J25">
+        <v>1.041518828479052</v>
+      </c>
+      <c r="K25">
+        <v>1.041518828479052</v>
+      </c>
+      <c r="L25">
+        <v>0.9287705550867932</v>
+      </c>
+      <c r="M25">
+        <v>1.048233132394996</v>
+      </c>
+      <c r="N25">
+        <v>1.048233132394996</v>
+      </c>
+      <c r="O25">
+        <v>1.033964107792891</v>
+      </c>
+      <c r="P25">
+        <v>1.045995031089681</v>
+      </c>
+      <c r="Q25">
+        <v>1.045995031089681</v>
+      </c>
+      <c r="R25">
+        <v>1.044875980437024</v>
+      </c>
+      <c r="S25">
+        <v>1.044875980437024</v>
+      </c>
+      <c r="T25">
+        <v>1.037642517380996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.854160915451609</v>
+      </c>
+      <c r="D26">
+        <v>0.4099686589766471</v>
+      </c>
+      <c r="E26">
+        <v>1.854160915451609</v>
+      </c>
+      <c r="F26">
+        <v>1.043768894579783</v>
+      </c>
+      <c r="G26">
+        <v>0.8593119149466725</v>
+      </c>
+      <c r="H26">
+        <v>1.1674583238723</v>
+      </c>
+      <c r="I26">
+        <v>1.568698496237104</v>
+      </c>
+      <c r="J26">
+        <v>0.4099686589766471</v>
+      </c>
+      <c r="K26">
+        <v>0.4099686589766471</v>
+      </c>
+      <c r="L26">
+        <v>1.043768894579783</v>
+      </c>
+      <c r="M26">
+        <v>1.448964905015696</v>
+      </c>
+      <c r="N26">
+        <v>1.448964905015696</v>
+      </c>
+      <c r="O26">
+        <v>1.355129377967898</v>
+      </c>
+      <c r="P26">
+        <v>1.10263282300268</v>
+      </c>
+      <c r="Q26">
+        <v>1.10263282300268</v>
+      </c>
+      <c r="R26">
+        <v>0.9294667819961716</v>
+      </c>
+      <c r="S26">
+        <v>0.9294667819961716</v>
+      </c>
+      <c r="T26">
+        <v>1.150561200677353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.702129702947961</v>
+      </c>
+      <c r="D27">
+        <v>1.102088880422162</v>
+      </c>
+      <c r="E27">
+        <v>0.702129702947961</v>
+      </c>
+      <c r="F27">
+        <v>1.014844709945246</v>
+      </c>
+      <c r="G27">
+        <v>1.042164527345565</v>
+      </c>
+      <c r="H27">
+        <v>1.034614917364419</v>
+      </c>
+      <c r="I27">
+        <v>0.5578103691142329</v>
+      </c>
+      <c r="J27">
+        <v>1.102088880422162</v>
+      </c>
+      <c r="K27">
+        <v>1.102088880422162</v>
+      </c>
+      <c r="L27">
+        <v>1.014844709945246</v>
+      </c>
+      <c r="M27">
+        <v>0.8584872064466033</v>
+      </c>
+      <c r="N27">
+        <v>0.8584872064466033</v>
+      </c>
+      <c r="O27">
+        <v>0.9171964434192086</v>
+      </c>
+      <c r="P27">
+        <v>0.9396877644384563</v>
+      </c>
+      <c r="Q27">
+        <v>0.9396877644384563</v>
+      </c>
+      <c r="R27">
+        <v>0.9802880434343828</v>
+      </c>
+      <c r="S27">
+        <v>0.9802880434343828</v>
+      </c>
+      <c r="T27">
+        <v>0.9089421845232644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9774565949712338</v>
+      </c>
+      <c r="D28">
+        <v>0.8864693610120481</v>
+      </c>
+      <c r="E28">
+        <v>0.9774565949712338</v>
+      </c>
+      <c r="F28">
+        <v>1.005475374312835</v>
+      </c>
+      <c r="G28">
+        <v>0.9528206949441753</v>
+      </c>
+      <c r="H28">
+        <v>1.147926097209534</v>
+      </c>
+      <c r="I28">
+        <v>0.8020426524956088</v>
+      </c>
+      <c r="J28">
+        <v>0.8864693610120481</v>
+      </c>
+      <c r="K28">
+        <v>0.8864693610120481</v>
+      </c>
+      <c r="L28">
+        <v>1.005475374312835</v>
+      </c>
+      <c r="M28">
+        <v>0.9914659846420344</v>
+      </c>
+      <c r="N28">
+        <v>0.9914659846420344</v>
+      </c>
+      <c r="O28">
+        <v>1.043619355497868</v>
+      </c>
+      <c r="P28">
+        <v>0.9564671100987057</v>
+      </c>
+      <c r="Q28">
+        <v>0.9564671100987057</v>
+      </c>
+      <c r="R28">
+        <v>0.9389676728270413</v>
+      </c>
+      <c r="S28">
+        <v>0.9389676728270413</v>
+      </c>
+      <c r="T28">
+        <v>0.9620317958242391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9990455326772268</v>
+      </c>
+      <c r="D29">
+        <v>0.9017896033027779</v>
+      </c>
+      <c r="E29">
+        <v>0.9990455326772268</v>
+      </c>
+      <c r="F29">
+        <v>1.007121219169848</v>
+      </c>
+      <c r="G29">
+        <v>0.9631472447264644</v>
+      </c>
+      <c r="H29">
+        <v>1.116803069710014</v>
+      </c>
+      <c r="I29">
+        <v>0.8416716016423489</v>
+      </c>
+      <c r="J29">
+        <v>0.9017896033027779</v>
+      </c>
+      <c r="K29">
+        <v>0.9017896033027779</v>
+      </c>
+      <c r="L29">
+        <v>1.007121219169848</v>
+      </c>
+      <c r="M29">
+        <v>1.003083375923537</v>
+      </c>
+      <c r="N29">
+        <v>1.003083375923537</v>
+      </c>
+      <c r="O29">
+        <v>1.04098994051903</v>
+      </c>
+      <c r="P29">
+        <v>0.9693187850499508</v>
+      </c>
+      <c r="Q29">
+        <v>0.9693187850499508</v>
+      </c>
+      <c r="R29">
+        <v>0.9524364896131576</v>
+      </c>
+      <c r="S29">
+        <v>0.9524364896131576</v>
+      </c>
+      <c r="T29">
+        <v>0.9715963785381133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.041600918211838</v>
+      </c>
+      <c r="D30">
+        <v>0.9345832903970578</v>
+      </c>
+      <c r="E30">
+        <v>1.041600918211838</v>
+      </c>
+      <c r="F30">
+        <v>1.009696233565789</v>
+      </c>
+      <c r="G30">
+        <v>0.9838772063219778</v>
+      </c>
+      <c r="H30">
+        <v>1.053986435266461</v>
+      </c>
+      <c r="I30">
+        <v>0.9210364381160911</v>
+      </c>
+      <c r="J30">
+        <v>0.9345832903970578</v>
+      </c>
+      <c r="K30">
+        <v>0.9345832903970578</v>
+      </c>
+      <c r="L30">
+        <v>1.009696233565789</v>
+      </c>
+      <c r="M30">
+        <v>1.025648575888813</v>
+      </c>
+      <c r="N30">
+        <v>1.025648575888813</v>
+      </c>
+      <c r="O30">
+        <v>1.035094529014696</v>
+      </c>
+      <c r="P30">
+        <v>0.9952934807248949</v>
+      </c>
+      <c r="Q30">
+        <v>0.9952934807248949</v>
+      </c>
+      <c r="R30">
+        <v>0.9801159331429357</v>
+      </c>
+      <c r="S30">
+        <v>0.9801159331429357</v>
+      </c>
+      <c r="T30">
+        <v>0.9907967536465357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9957675069761819</v>
+      </c>
+      <c r="D31">
+        <v>0.8908640734497695</v>
+      </c>
+      <c r="E31">
+        <v>0.9957675069761819</v>
+      </c>
+      <c r="F31">
+        <v>1.036642699094571</v>
+      </c>
+      <c r="G31">
+        <v>0.989105253896945</v>
+      </c>
+      <c r="H31">
+        <v>1.061106065469326</v>
+      </c>
+      <c r="I31">
+        <v>0.9087829907812423</v>
+      </c>
+      <c r="J31">
+        <v>0.8908640734497695</v>
+      </c>
+      <c r="K31">
+        <v>0.8908640734497695</v>
+      </c>
+      <c r="L31">
+        <v>1.036642699094571</v>
+      </c>
+      <c r="M31">
+        <v>1.016205103035376</v>
+      </c>
+      <c r="N31">
+        <v>1.016205103035376</v>
+      </c>
+      <c r="O31">
+        <v>1.031172090513359</v>
+      </c>
+      <c r="P31">
+        <v>0.974424759840174</v>
+      </c>
+      <c r="Q31">
+        <v>0.974424759840174</v>
+      </c>
+      <c r="R31">
+        <v>0.9535345882425729</v>
+      </c>
+      <c r="S31">
+        <v>0.9535345882425729</v>
+      </c>
+      <c r="T31">
+        <v>0.9803780982780058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.942867557071233</v>
+      </c>
+      <c r="D32">
+        <v>0.9065157298630137</v>
+      </c>
+      <c r="E32">
+        <v>0.942867557071233</v>
+      </c>
+      <c r="F32">
+        <v>0.9959017194520551</v>
+      </c>
+      <c r="G32">
+        <v>0.9451279221917809</v>
+      </c>
+      <c r="H32">
+        <v>1.168279641369863</v>
+      </c>
+      <c r="I32">
+        <v>0.7544660746849313</v>
+      </c>
+      <c r="J32">
+        <v>0.9065157298630137</v>
+      </c>
+      <c r="K32">
+        <v>0.9065157298630137</v>
+      </c>
+      <c r="L32">
+        <v>0.9959017194520551</v>
+      </c>
+      <c r="M32">
+        <v>0.969384638261644</v>
+      </c>
+      <c r="N32">
+        <v>0.969384638261644</v>
+      </c>
+      <c r="O32">
+        <v>1.03568297263105</v>
+      </c>
+      <c r="P32">
+        <v>0.9484283354621006</v>
+      </c>
+      <c r="Q32">
+        <v>0.9484283354621006</v>
+      </c>
+      <c r="R32">
+        <v>0.9379501840623289</v>
+      </c>
+      <c r="S32">
+        <v>0.9379501840623289</v>
+      </c>
+      <c r="T32">
+        <v>0.9521931074388128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.185664375810526</v>
+      </c>
+      <c r="D33">
+        <v>0.746581887368421</v>
+      </c>
+      <c r="E33">
+        <v>1.185664375810526</v>
+      </c>
+      <c r="F33">
+        <v>1.156175754210526</v>
+      </c>
+      <c r="G33">
+        <v>1.008022804210526</v>
+      </c>
+      <c r="H33">
+        <v>0.8050845177368422</v>
+      </c>
+      <c r="I33">
+        <v>1.842901521052632</v>
+      </c>
+      <c r="J33">
+        <v>0.746581887368421</v>
+      </c>
+      <c r="K33">
+        <v>0.746581887368421</v>
+      </c>
+      <c r="L33">
+        <v>1.156175754210526</v>
+      </c>
+      <c r="M33">
+        <v>1.170920065010526</v>
+      </c>
+      <c r="N33">
+        <v>1.170920065010526</v>
+      </c>
+      <c r="O33">
+        <v>1.048974882585965</v>
+      </c>
+      <c r="P33">
+        <v>1.029474005796491</v>
+      </c>
+      <c r="Q33">
+        <v>1.029474005796491</v>
+      </c>
+      <c r="R33">
+        <v>0.9587509761894736</v>
+      </c>
+      <c r="S33">
+        <v>0.9587509761894736</v>
+      </c>
+      <c r="T33">
+        <v>1.124071810064912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.2081513839473683</v>
+      </c>
+      <c r="D34">
+        <v>1.597856059473684</v>
+      </c>
+      <c r="E34">
+        <v>0.2081513839473683</v>
+      </c>
+      <c r="F34">
+        <v>1.039957435789474</v>
+      </c>
+      <c r="G34">
+        <v>1.197749477368421</v>
+      </c>
+      <c r="H34">
+        <v>0.5890839115789474</v>
+      </c>
+      <c r="I34">
+        <v>1.010065296315789</v>
+      </c>
+      <c r="J34">
+        <v>1.597856059473684</v>
+      </c>
+      <c r="K34">
+        <v>1.597856059473684</v>
+      </c>
+      <c r="L34">
+        <v>1.039957435789474</v>
+      </c>
+      <c r="M34">
+        <v>0.624054409868421</v>
+      </c>
+      <c r="N34">
+        <v>0.624054409868421</v>
+      </c>
+      <c r="O34">
+        <v>0.6123975771052631</v>
+      </c>
+      <c r="P34">
+        <v>0.948654959736842</v>
+      </c>
+      <c r="Q34">
+        <v>0.948654959736842</v>
+      </c>
+      <c r="R34">
+        <v>1.110955234671053</v>
+      </c>
+      <c r="S34">
+        <v>1.110955234671053</v>
+      </c>
+      <c r="T34">
+        <v>0.940477260745614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.001044414597896</v>
+      </c>
+      <c r="D35">
+        <v>0.6241317312350898</v>
+      </c>
+      <c r="E35">
+        <v>1.001044414597896</v>
+      </c>
+      <c r="F35">
+        <v>1.149199506273531</v>
+      </c>
+      <c r="G35">
+        <v>0.9611473140280894</v>
+      </c>
+      <c r="H35">
+        <v>1.203840934246781</v>
+      </c>
+      <c r="I35">
+        <v>0.6349879351798686</v>
+      </c>
+      <c r="J35">
+        <v>0.6241317312350898</v>
+      </c>
+      <c r="K35">
+        <v>0.6241317312350898</v>
+      </c>
+      <c r="L35">
+        <v>1.149199506273531</v>
+      </c>
+      <c r="M35">
+        <v>1.075121960435713</v>
+      </c>
+      <c r="N35">
+        <v>1.075121960435713</v>
+      </c>
+      <c r="O35">
+        <v>1.118028285039403</v>
+      </c>
+      <c r="P35">
+        <v>0.9247918840355055</v>
+      </c>
+      <c r="Q35">
+        <v>0.9247918840355056</v>
+      </c>
+      <c r="R35">
+        <v>0.8496268458354017</v>
+      </c>
+      <c r="S35">
+        <v>0.8496268458354017</v>
+      </c>
+      <c r="T35">
+        <v>0.9290586392602092</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000836209240421</v>
+      </c>
+      <c r="D36">
+        <v>0.9976479790757908</v>
+      </c>
+      <c r="E36">
+        <v>1.000836209240421</v>
+      </c>
+      <c r="F36">
+        <v>1.000745611171903</v>
+      </c>
+      <c r="G36">
+        <v>0.9998849144804164</v>
+      </c>
+      <c r="H36">
+        <v>1.000094516043672</v>
+      </c>
+      <c r="I36">
+        <v>1.002184269500918</v>
+      </c>
+      <c r="J36">
+        <v>0.9976479790757908</v>
+      </c>
+      <c r="K36">
+        <v>0.9976479790757908</v>
+      </c>
+      <c r="L36">
+        <v>1.000745611171903</v>
+      </c>
+      <c r="M36">
+        <v>1.000790910206162</v>
+      </c>
+      <c r="N36">
+        <v>1.000790910206162</v>
+      </c>
+      <c r="O36">
+        <v>1.000558778818665</v>
+      </c>
+      <c r="P36">
+        <v>0.9997432664960382</v>
+      </c>
+      <c r="Q36">
+        <v>0.9997432664960382</v>
+      </c>
+      <c r="R36">
+        <v>0.9992194446409763</v>
+      </c>
+      <c r="S36">
+        <v>0.9992194446409763</v>
+      </c>
+      <c r="T36">
+        <v>1.000232249918854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9985628074914477</v>
+      </c>
+      <c r="D37">
+        <v>1.002337868487474</v>
+      </c>
+      <c r="E37">
+        <v>0.9985628074914477</v>
+      </c>
+      <c r="F37">
+        <v>0.9996288682287721</v>
+      </c>
+      <c r="G37">
+        <v>1.000177616122483</v>
+      </c>
+      <c r="H37">
+        <v>1.000345842968489</v>
+      </c>
+      <c r="I37">
+        <v>0.9954466472691071</v>
+      </c>
+      <c r="J37">
+        <v>1.002337868487474</v>
+      </c>
+      <c r="K37">
+        <v>1.002337868487474</v>
+      </c>
+      <c r="L37">
+        <v>0.9996288682287721</v>
+      </c>
+      <c r="M37">
+        <v>0.9990958378601098</v>
+      </c>
+      <c r="N37">
+        <v>0.9990958378601098</v>
+      </c>
+      <c r="O37">
+        <v>0.9995125062295696</v>
+      </c>
+      <c r="P37">
+        <v>1.000176514735898</v>
+      </c>
+      <c r="Q37">
+        <v>1.000176514735898</v>
+      </c>
+      <c r="R37">
+        <v>1.000716853173792</v>
+      </c>
+      <c r="S37">
+        <v>1.000716853173792</v>
+      </c>
+      <c r="T37">
+        <v>0.999416608427962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001758959827723</v>
+      </c>
+      <c r="D38">
+        <v>0.9928618327267746</v>
+      </c>
+      <c r="E38">
+        <v>1.001758959827723</v>
+      </c>
+      <c r="F38">
+        <v>1.001400365844472</v>
+      </c>
+      <c r="G38">
+        <v>0.9984744033185619</v>
+      </c>
+      <c r="H38">
+        <v>1.002570987729354</v>
+      </c>
+      <c r="I38">
+        <v>1.004029103491647</v>
+      </c>
+      <c r="J38">
+        <v>0.9928618327267746</v>
+      </c>
+      <c r="K38">
+        <v>0.9928618327267746</v>
+      </c>
+      <c r="L38">
+        <v>1.001400365844472</v>
+      </c>
+      <c r="M38">
+        <v>1.001579662836098</v>
+      </c>
+      <c r="N38">
+        <v>1.001579662836098</v>
+      </c>
+      <c r="O38">
+        <v>1.001910104467183</v>
+      </c>
+      <c r="P38">
+        <v>0.9986737194663232</v>
+      </c>
+      <c r="Q38">
+        <v>0.9986737194663232</v>
+      </c>
+      <c r="R38">
+        <v>0.9972207477814361</v>
+      </c>
+      <c r="S38">
+        <v>0.9972207477814361</v>
+      </c>
+      <c r="T38">
+        <v>1.000182608823089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.007944169199722</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9702448871771361</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.007944169199722</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.006734254332805</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9963521264310542</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00762604129156</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.01875516853107</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9702448871771361</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9702448871771361</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.006734254332805</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.007339211766264</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.007339211766264</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.007434821608029</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9949744369032212</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9949744369032212</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9887920494717</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9887920494717</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.001276107827225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.83329482916822</v>
+      </c>
+      <c r="D40">
+        <v>0.9675206279505491</v>
+      </c>
+      <c r="E40">
+        <v>0.83329482916822</v>
+      </c>
+      <c r="F40">
+        <v>1.082933974525462</v>
+      </c>
+      <c r="G40">
+        <v>1.049420759549239</v>
+      </c>
+      <c r="H40">
+        <v>0.8651263159791783</v>
+      </c>
+      <c r="I40">
+        <v>1.310347448962208</v>
+      </c>
+      <c r="J40">
+        <v>0.9675206279505491</v>
+      </c>
+      <c r="K40">
+        <v>0.9675206279505491</v>
+      </c>
+      <c r="L40">
+        <v>1.082933974525462</v>
+      </c>
+      <c r="M40">
+        <v>0.958114401846841</v>
+      </c>
+      <c r="N40">
+        <v>0.958114401846841</v>
+      </c>
+      <c r="O40">
+        <v>0.9271183732242868</v>
+      </c>
+      <c r="P40">
+        <v>0.9612498105480771</v>
+      </c>
+      <c r="Q40">
+        <v>0.9612498105480771</v>
+      </c>
+      <c r="R40">
+        <v>0.962817514898695</v>
+      </c>
+      <c r="S40">
+        <v>0.962817514898695</v>
+      </c>
+      <c r="T40">
+        <v>1.018107326022476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9772035459457712</v>
+      </c>
+      <c r="D41">
+        <v>1.027898709089456</v>
+      </c>
+      <c r="E41">
+        <v>0.9772035459457712</v>
+      </c>
+      <c r="F41">
+        <v>0.994029963288813</v>
+      </c>
+      <c r="G41">
+        <v>1.003671780606427</v>
+      </c>
+      <c r="H41">
+        <v>0.9994332808900143</v>
+      </c>
+      <c r="I41">
+        <v>0.9562232433403146</v>
+      </c>
+      <c r="J41">
+        <v>1.027898709089456</v>
+      </c>
+      <c r="K41">
+        <v>1.027898709089456</v>
+      </c>
+      <c r="L41">
+        <v>0.994029963288813</v>
+      </c>
+      <c r="M41">
+        <v>0.985616754617292</v>
+      </c>
+      <c r="N41">
+        <v>0.985616754617292</v>
+      </c>
+      <c r="O41">
+        <v>0.9902222633748661</v>
+      </c>
+      <c r="P41">
+        <v>0.9997107394413467</v>
+      </c>
+      <c r="Q41">
+        <v>0.9997107394413467</v>
+      </c>
+      <c r="R41">
+        <v>1.006757731853374</v>
+      </c>
+      <c r="S41">
+        <v>1.006757731853374</v>
+      </c>
+      <c r="T41">
+        <v>0.9930767538601325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.125701991604757</v>
+      </c>
+      <c r="D42">
+        <v>0.7702012763502314</v>
+      </c>
+      <c r="E42">
+        <v>1.125701991604757</v>
+      </c>
+      <c r="F42">
+        <v>1.08546305679022</v>
+      </c>
+      <c r="G42">
+        <v>0.9892766022023282</v>
+      </c>
+      <c r="H42">
+        <v>1.023071032779998</v>
+      </c>
+      <c r="I42">
+        <v>1.150165234188994</v>
+      </c>
+      <c r="J42">
+        <v>0.7702012763502314</v>
+      </c>
+      <c r="K42">
+        <v>0.7702012763502314</v>
+      </c>
+      <c r="L42">
+        <v>1.08546305679022</v>
+      </c>
+      <c r="M42">
+        <v>1.105582524197488</v>
+      </c>
+      <c r="N42">
+        <v>1.105582524197488</v>
+      </c>
+      <c r="O42">
+        <v>1.078078693724992</v>
+      </c>
+      <c r="P42">
+        <v>0.9937887749150693</v>
+      </c>
+      <c r="Q42">
+        <v>0.9937887749150693</v>
+      </c>
+      <c r="R42">
+        <v>0.9378919002738598</v>
+      </c>
+      <c r="S42">
+        <v>0.9378919002738598</v>
+      </c>
+      <c r="T42">
+        <v>1.023979865652755</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9939724034263244</v>
+        <v>0.9993011191028796</v>
       </c>
       <c r="D3">
-        <v>0.9966887985497479</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="E3">
-        <v>1.000693919062571</v>
+        <v>0.9993011191028796</v>
       </c>
       <c r="F3">
-        <v>0.9939724034263244</v>
+        <v>1.000340573711842</v>
       </c>
       <c r="G3">
-        <v>0.989515745521539</v>
+        <v>0.9999267204332899</v>
       </c>
       <c r="H3">
-        <v>1.007845501892235</v>
+        <v>1.000442245214767</v>
       </c>
       <c r="I3">
-        <v>0.9975529482114194</v>
+        <v>0.9980723244570099</v>
       </c>
       <c r="J3">
-        <v>0.9966887985497479</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="K3">
-        <v>0.9939724034263244</v>
+        <v>0.9998887295753114</v>
       </c>
       <c r="L3">
-        <v>1.000693919062571</v>
+        <v>1.000340573711842</v>
       </c>
       <c r="M3">
-        <v>0.9986913588061594</v>
+        <v>0.9998208464073608</v>
       </c>
       <c r="N3">
-        <v>0.9986913588061594</v>
+        <v>0.9998208464073608</v>
       </c>
       <c r="O3">
-        <v>1.001742739834851</v>
+        <v>1.000027979343163</v>
       </c>
       <c r="P3">
-        <v>0.9971183736795478</v>
+        <v>0.9998434741300111</v>
       </c>
       <c r="Q3">
-        <v>0.9971183736795478</v>
+        <v>0.9998434741300111</v>
       </c>
       <c r="R3">
-        <v>0.996331881116242</v>
+        <v>0.9998547879913362</v>
       </c>
       <c r="S3">
-        <v>0.996331881116242</v>
+        <v>0.9998547879913362</v>
       </c>
       <c r="T3">
-        <v>0.9977115527773061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9996619520825166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9894521664842243</v>
+        <v>0.83329482916822</v>
       </c>
       <c r="D4">
-        <v>0.9950267695014033</v>
+        <v>0.9675206279505491</v>
       </c>
       <c r="E4">
-        <v>1.00070804397502</v>
+        <v>0.83329482916822</v>
       </c>
       <c r="F4">
-        <v>0.9894521664842243</v>
+        <v>1.082933974525462</v>
       </c>
       <c r="G4">
-        <v>0.9795415742781129</v>
+        <v>1.049420759549239</v>
       </c>
       <c r="H4">
-        <v>1.01494540532494</v>
+        <v>0.8651263159791783</v>
       </c>
       <c r="I4">
-        <v>0.9952368444042927</v>
+        <v>1.310347448962208</v>
       </c>
       <c r="J4">
-        <v>0.9950267695014033</v>
+        <v>0.9675206279505491</v>
       </c>
       <c r="K4">
-        <v>0.9894521664842243</v>
+        <v>0.9675206279505491</v>
       </c>
       <c r="L4">
-        <v>1.00070804397502</v>
+        <v>1.082933974525462</v>
       </c>
       <c r="M4">
-        <v>0.9978674067382116</v>
+        <v>0.958114401846841</v>
       </c>
       <c r="N4">
-        <v>0.9978674067382116</v>
+        <v>0.958114401846841</v>
       </c>
       <c r="O4">
-        <v>1.003560072933788</v>
+        <v>0.9271183732242868</v>
       </c>
       <c r="P4">
-        <v>0.9950623266535491</v>
+        <v>0.9612498105480771</v>
       </c>
       <c r="Q4">
-        <v>0.9950623266535491</v>
+        <v>0.9612498105480771</v>
       </c>
       <c r="R4">
-        <v>0.9936597866112179</v>
+        <v>0.962817514898695</v>
       </c>
       <c r="S4">
-        <v>0.9936597866112179</v>
+        <v>0.962817514898695</v>
       </c>
       <c r="T4">
-        <v>0.9958184673279989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.018107326022476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9778946787286684</v>
+        <v>1.027761060787179</v>
       </c>
       <c r="D5">
-        <v>0.9881198104934729</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="E5">
-        <v>1.002797895988164</v>
+        <v>1.027761060787179</v>
       </c>
       <c r="F5">
-        <v>0.9778946787286684</v>
+        <v>1.017840511066283</v>
       </c>
       <c r="G5">
-        <v>0.96141777604519</v>
+        <v>0.9845720861671463</v>
       </c>
       <c r="H5">
-        <v>1.028972992325148</v>
+        <v>1.05875961545677</v>
       </c>
       <c r="I5">
-        <v>0.9908233248097845</v>
+        <v>0.9054168276080694</v>
       </c>
       <c r="J5">
-        <v>0.9881198104934729</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="K5">
-        <v>0.9778946787286684</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="L5">
-        <v>1.002797895988164</v>
+        <v>1.017840511066283</v>
       </c>
       <c r="M5">
-        <v>0.9954588532408186</v>
+        <v>1.022800785926731</v>
       </c>
       <c r="N5">
-        <v>0.9954588532408186</v>
+        <v>1.022800785926731</v>
       </c>
       <c r="O5">
-        <v>1.006630232935595</v>
+        <v>1.034787062436744</v>
       </c>
       <c r="P5">
-        <v>0.9896041284034353</v>
+        <v>0.9895896022436602</v>
       </c>
       <c r="Q5">
-        <v>0.9896041284034353</v>
+        <v>0.9895896022436602</v>
       </c>
       <c r="R5">
-        <v>0.9866767659847435</v>
+        <v>0.9729840104021249</v>
       </c>
       <c r="S5">
-        <v>0.9866767659847435</v>
+        <v>0.9729840104021249</v>
       </c>
       <c r="T5">
-        <v>0.991671079731738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.986252889327161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9728525610313339</v>
+        <v>1.001044414597896</v>
       </c>
       <c r="D6">
-        <v>0.9749182692553735</v>
+        <v>0.6241317312350898</v>
       </c>
       <c r="E6">
-        <v>1.005695711467077</v>
+        <v>1.001044414597896</v>
       </c>
       <c r="F6">
-        <v>0.9728525610313339</v>
+        <v>1.149199506273531</v>
       </c>
       <c r="G6">
-        <v>0.944987151106472</v>
+        <v>0.9611473140280894</v>
       </c>
       <c r="H6">
-        <v>1.0448655267686</v>
+        <v>1.203840934246781</v>
       </c>
       <c r="I6">
-        <v>0.9837609309837915</v>
+        <v>0.6349879351798686</v>
       </c>
       <c r="J6">
-        <v>0.9749182692553735</v>
+        <v>0.6241317312350898</v>
       </c>
       <c r="K6">
-        <v>0.9728525610313339</v>
+        <v>0.6241317312350898</v>
       </c>
       <c r="L6">
-        <v>1.005695711467077</v>
+        <v>1.149199506273531</v>
       </c>
       <c r="M6">
-        <v>0.9903069903612254</v>
+        <v>1.075121960435713</v>
       </c>
       <c r="N6">
-        <v>0.9903069903612254</v>
+        <v>1.075121960435713</v>
       </c>
       <c r="O6">
-        <v>1.008493169163684</v>
+        <v>1.118028285039403</v>
       </c>
       <c r="P6">
-        <v>0.9844888472512615</v>
+        <v>0.9247918840355055</v>
       </c>
       <c r="Q6">
-        <v>0.9844888472512615</v>
+        <v>0.9247918840355056</v>
       </c>
       <c r="R6">
-        <v>0.9815797756962796</v>
+        <v>0.8496268458354017</v>
       </c>
       <c r="S6">
-        <v>0.9815797756962796</v>
+        <v>0.8496268458354017</v>
       </c>
       <c r="T6">
-        <v>0.9878466917687746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9290586392602092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999632589284158</v>
+        <v>0.9946235845185235</v>
       </c>
       <c r="D7">
-        <v>0.9999154850452487</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="E7">
-        <v>1.000194139861201</v>
+        <v>0.9946235845185235</v>
       </c>
       <c r="F7">
-        <v>0.999632589284158</v>
+        <v>0.9987952715743096</v>
       </c>
       <c r="G7">
-        <v>0.999199184780212</v>
+        <v>0.9982685716944655</v>
       </c>
       <c r="H7">
-        <v>1.000306409819421</v>
+        <v>1.006355265067157</v>
       </c>
       <c r="I7">
-        <v>0.999941372031342</v>
+        <v>0.9869691700145405</v>
       </c>
       <c r="J7">
-        <v>0.9999154850452487</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="K7">
-        <v>0.999632589284158</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="L7">
-        <v>1.000194139861201</v>
+        <v>0.9987952715743096</v>
       </c>
       <c r="M7">
-        <v>1.000054812453225</v>
+        <v>0.9967094280464166</v>
       </c>
       <c r="N7">
-        <v>1.000054812453225</v>
+        <v>0.9967094280464166</v>
       </c>
       <c r="O7">
-        <v>1.000138678241957</v>
+        <v>0.9999247070533301</v>
       </c>
       <c r="P7">
-        <v>0.9999140713968692</v>
+        <v>0.9976562681602341</v>
       </c>
       <c r="Q7">
-        <v>0.9999140713968692</v>
+        <v>0.9976562681602341</v>
       </c>
       <c r="R7">
-        <v>0.9998437008686913</v>
+        <v>0.9981296882171429</v>
       </c>
       <c r="S7">
-        <v>0.9998437008686913</v>
+        <v>0.9981296882171429</v>
       </c>
       <c r="T7">
-        <v>0.9998648634702638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9974269685428109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998887295753117</v>
+        <v>0.9985628074914477</v>
       </c>
       <c r="D8">
-        <v>0.9993011191028804</v>
+        <v>1.002337868487474</v>
       </c>
       <c r="E8">
-        <v>1.000340573711842</v>
+        <v>0.9985628074914477</v>
       </c>
       <c r="F8">
-        <v>0.9998887295753117</v>
+        <v>0.9996288682287721</v>
       </c>
       <c r="G8">
-        <v>0.9980723244570094</v>
+        <v>1.000177616122483</v>
       </c>
       <c r="H8">
-        <v>1.000442245214767</v>
+        <v>1.000345842968489</v>
       </c>
       <c r="I8">
-        <v>0.9999267204332896</v>
+        <v>0.9954466472691071</v>
       </c>
       <c r="J8">
-        <v>0.9993011191028804</v>
+        <v>1.002337868487474</v>
       </c>
       <c r="K8">
-        <v>0.9998887295753117</v>
+        <v>1.002337868487474</v>
       </c>
       <c r="L8">
-        <v>1.000340573711842</v>
+        <v>0.9996288682287721</v>
       </c>
       <c r="M8">
-        <v>0.9998208464073611</v>
+        <v>0.9990958378601098</v>
       </c>
       <c r="N8">
-        <v>0.9998208464073611</v>
+        <v>0.9990958378601098</v>
       </c>
       <c r="O8">
-        <v>1.000027979343163</v>
+        <v>0.9995125062295696</v>
       </c>
       <c r="P8">
-        <v>0.9998434741300114</v>
+        <v>1.000176514735898</v>
       </c>
       <c r="Q8">
-        <v>0.9998434741300114</v>
+        <v>1.000176514735898</v>
       </c>
       <c r="R8">
-        <v>0.9998547879913364</v>
+        <v>1.000716853173792</v>
       </c>
       <c r="S8">
-        <v>0.9998547879913364</v>
+        <v>1.000716853173792</v>
       </c>
       <c r="T8">
-        <v>0.9996619520825166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.999416608427962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001117409902058</v>
+        <v>0.9950267695014033</v>
       </c>
       <c r="D9">
-        <v>0.9991544355915257</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="E9">
-        <v>0.9998563338440616</v>
+        <v>0.9950267695014033</v>
       </c>
       <c r="F9">
-        <v>1.001117409902058</v>
+        <v>1.00070804397502</v>
       </c>
       <c r="G9">
-        <v>0.9967842133715248</v>
+        <v>0.9952368444042927</v>
       </c>
       <c r="H9">
-        <v>1.000570730617331</v>
+        <v>1.01494540532494</v>
       </c>
       <c r="I9">
-        <v>0.9998559330746394</v>
+        <v>0.9795415742781129</v>
       </c>
       <c r="J9">
-        <v>0.9991544355915257</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="K9">
-        <v>1.001117409902058</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="L9">
-        <v>0.9998563338440616</v>
+        <v>1.00070804397502</v>
       </c>
       <c r="M9">
-        <v>0.9995053847177937</v>
+        <v>0.9978674067382116</v>
       </c>
       <c r="N9">
-        <v>0.9995053847177937</v>
+        <v>0.9978674067382116</v>
       </c>
       <c r="O9">
-        <v>0.9998605000176394</v>
+        <v>1.003560072933788</v>
       </c>
       <c r="P9">
-        <v>1.000042726445882</v>
+        <v>0.9950623266535491</v>
       </c>
       <c r="Q9">
-        <v>1.000042726445882</v>
+        <v>0.9950623266535491</v>
       </c>
       <c r="R9">
-        <v>1.000311397309926</v>
+        <v>0.9936597866112179</v>
       </c>
       <c r="S9">
-        <v>1.000311397309926</v>
+        <v>0.9936597866112179</v>
       </c>
       <c r="T9">
-        <v>0.99955650940019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9958184673279989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000752933880836</v>
+        <v>0.9791836775125612</v>
       </c>
       <c r="D10">
-        <v>0.9977333200879432</v>
+        <v>0.6048817623591209</v>
       </c>
       <c r="E10">
-        <v>1.000423364245246</v>
+        <v>0.9791836775125612</v>
       </c>
       <c r="F10">
-        <v>1.000752933880836</v>
+        <v>1.160662504201934</v>
       </c>
       <c r="G10">
-        <v>0.993697390396123</v>
+        <v>0.9630995540251072</v>
       </c>
       <c r="H10">
-        <v>1.001399587189502</v>
+        <v>1.208835122177436</v>
       </c>
       <c r="I10">
-        <v>0.9997220763587107</v>
+        <v>0.6245177307341323</v>
       </c>
       <c r="J10">
-        <v>0.9977333200879432</v>
+        <v>0.6048817623591209</v>
       </c>
       <c r="K10">
-        <v>1.000752933880836</v>
+        <v>0.6048817623591209</v>
       </c>
       <c r="L10">
-        <v>1.000423364245246</v>
+        <v>1.160662504201934</v>
       </c>
       <c r="M10">
-        <v>0.9990783421665946</v>
+        <v>1.069923090857248</v>
       </c>
       <c r="N10">
-        <v>0.9990783421665946</v>
+        <v>1.069923090857248</v>
       </c>
       <c r="O10">
-        <v>0.9998520905075639</v>
+        <v>1.11622710129731</v>
       </c>
       <c r="P10">
-        <v>0.999636539404675</v>
+        <v>0.9149093146912054</v>
       </c>
       <c r="Q10">
-        <v>0.999636539404675</v>
+        <v>0.9149093146912053</v>
       </c>
       <c r="R10">
-        <v>0.9999156380237153</v>
+        <v>0.8374024266081842</v>
       </c>
       <c r="S10">
-        <v>0.9999156380237153</v>
+        <v>0.8374024266081842</v>
       </c>
       <c r="T10">
-        <v>0.9989547786930602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9235300585017151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005610808024662</v>
+        <v>0.8441057411291404</v>
       </c>
       <c r="D11">
-        <v>0.9959752148608052</v>
+        <v>0.9635540100028261</v>
       </c>
       <c r="E11">
-        <v>0.9990906160810122</v>
+        <v>0.8441057411291404</v>
       </c>
       <c r="F11">
-        <v>1.005610808024662</v>
+        <v>1.076609086350009</v>
       </c>
       <c r="G11">
-        <v>0.9875298302134751</v>
+        <v>1.044776069005108</v>
       </c>
       <c r="H11">
-        <v>1.001729530300203</v>
+        <v>0.8931725053009205</v>
       </c>
       <c r="I11">
-        <v>0.9995834569188476</v>
+        <v>1.228737250271591</v>
       </c>
       <c r="J11">
-        <v>0.9959752148608052</v>
+        <v>0.9635540100028261</v>
       </c>
       <c r="K11">
-        <v>1.005610808024662</v>
+        <v>0.9635540100028261</v>
       </c>
       <c r="L11">
-        <v>0.9990906160810122</v>
+        <v>1.076609086350009</v>
       </c>
       <c r="M11">
-        <v>0.9975329154709087</v>
+        <v>0.9603574137395746</v>
       </c>
       <c r="N11">
-        <v>0.9975329154709087</v>
+        <v>0.9603574137395746</v>
       </c>
       <c r="O11">
-        <v>0.9989317870806733</v>
+        <v>0.9379624442600232</v>
       </c>
       <c r="P11">
-        <v>1.00022554632216</v>
+        <v>0.9614229458273251</v>
       </c>
       <c r="Q11">
-        <v>1.00022554632216</v>
+        <v>0.9614229458273251</v>
       </c>
       <c r="R11">
-        <v>1.001571861747786</v>
+        <v>0.9619557118712003</v>
       </c>
       <c r="S11">
-        <v>1.001571861747786</v>
+        <v>0.9619557118712003</v>
       </c>
       <c r="T11">
-        <v>0.9982532427331675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.008492443676599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.012461433004076</v>
+        <v>0.9830220032852626</v>
       </c>
       <c r="D12">
-        <v>0.8719239238809947</v>
+        <v>0.8845264446421041</v>
       </c>
       <c r="E12">
-        <v>1.019430561912298</v>
+        <v>0.9830220032852626</v>
       </c>
       <c r="F12">
-        <v>1.012461433004076</v>
+        <v>1.043227683957896</v>
       </c>
       <c r="G12">
-        <v>0.8129922066431099</v>
+        <v>0.9895329408210538</v>
       </c>
       <c r="H12">
-        <v>1.031253835925272</v>
+        <v>1.063741856021052</v>
       </c>
       <c r="I12">
-        <v>1.014842993093235</v>
+        <v>0.8954012934421056</v>
       </c>
       <c r="J12">
-        <v>0.8719239238809947</v>
+        <v>0.8845264446421041</v>
       </c>
       <c r="K12">
-        <v>1.012461433004076</v>
+        <v>0.8845264446421041</v>
       </c>
       <c r="L12">
-        <v>1.019430561912298</v>
+        <v>1.043227683957896</v>
       </c>
       <c r="M12">
-        <v>0.9456772428966465</v>
+        <v>1.013124843621579</v>
       </c>
       <c r="N12">
-        <v>0.9456772428966465</v>
+        <v>1.013124843621579</v>
       </c>
       <c r="O12">
-        <v>0.9742027739061884</v>
+        <v>1.02999718108807</v>
       </c>
       <c r="P12">
-        <v>0.9679386395991232</v>
+        <v>0.9702587106284208</v>
       </c>
       <c r="Q12">
-        <v>0.9679386395991232</v>
+        <v>0.9702587106284207</v>
       </c>
       <c r="R12">
-        <v>0.9790693379503614</v>
+        <v>0.9488256441318416</v>
       </c>
       <c r="S12">
-        <v>0.9790693379503614</v>
+        <v>0.9488256441318416</v>
       </c>
       <c r="T12">
-        <v>0.9604841590764979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9765753703615788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.041518828479052</v>
+        <v>0.8699580309027648</v>
       </c>
       <c r="D13">
-        <v>1.167695709703199</v>
+        <v>0.9895735244500315</v>
       </c>
       <c r="E13">
-        <v>0.9287705550867931</v>
+        <v>0.8699580309027648</v>
       </c>
       <c r="F13">
-        <v>1.041518828479052</v>
+        <v>1.037276931918105</v>
       </c>
       <c r="G13">
-        <v>1.11806696659525</v>
+        <v>1.024512849301271</v>
       </c>
       <c r="H13">
-        <v>1.00542605858868</v>
+        <v>0.9630288150250348</v>
       </c>
       <c r="I13">
-        <v>0.9643769858330018</v>
+        <v>1.04322483812628</v>
       </c>
       <c r="J13">
-        <v>1.167695709703199</v>
+        <v>0.9895735244500315</v>
       </c>
       <c r="K13">
-        <v>1.041518828479052</v>
+        <v>0.9895735244500315</v>
       </c>
       <c r="L13">
-        <v>0.9287705550867931</v>
+        <v>1.037276931918105</v>
       </c>
       <c r="M13">
-        <v>1.048233132394996</v>
+        <v>0.953617481410435</v>
       </c>
       <c r="N13">
-        <v>1.048233132394996</v>
+        <v>0.953617481410435</v>
       </c>
       <c r="O13">
-        <v>1.033964107792891</v>
+        <v>0.9567545926153015</v>
       </c>
       <c r="P13">
-        <v>1.045995031089681</v>
+        <v>0.9656028290903005</v>
       </c>
       <c r="Q13">
-        <v>1.045995031089681</v>
+        <v>0.9656028290903005</v>
       </c>
       <c r="R13">
-        <v>1.044875980437024</v>
+        <v>0.9715955029302332</v>
       </c>
       <c r="S13">
-        <v>1.044875980437024</v>
+        <v>0.9715955029302332</v>
       </c>
       <c r="T13">
-        <v>1.037642517380996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9879291649539145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4099686589766472</v>
+        <v>0.9583655099999996</v>
       </c>
       <c r="D14">
-        <v>1.854160915451609</v>
+        <v>0.31618718</v>
       </c>
       <c r="E14">
-        <v>1.043768894579783</v>
+        <v>0.9583655099999996</v>
       </c>
       <c r="F14">
-        <v>0.4099686589766472</v>
+        <v>1.2882243</v>
       </c>
       <c r="G14">
-        <v>1.568698496237104</v>
+        <v>0.9383557499999998</v>
       </c>
       <c r="H14">
-        <v>1.1674583238723</v>
+        <v>1.353817500000001</v>
       </c>
       <c r="I14">
-        <v>0.8593119149466726</v>
+        <v>0.34611211</v>
       </c>
       <c r="J14">
-        <v>1.854160915451609</v>
+        <v>0.31618718</v>
       </c>
       <c r="K14">
-        <v>0.4099686589766472</v>
+        <v>0.31618718</v>
       </c>
       <c r="L14">
-        <v>1.043768894579783</v>
+        <v>1.2882243</v>
       </c>
       <c r="M14">
-        <v>1.448964905015696</v>
+        <v>1.123294905</v>
       </c>
       <c r="N14">
-        <v>1.448964905015696</v>
+        <v>1.123294905</v>
       </c>
       <c r="O14">
-        <v>1.355129377967898</v>
+        <v>1.20013577</v>
       </c>
       <c r="P14">
-        <v>1.10263282300268</v>
+        <v>0.8542589966666664</v>
       </c>
       <c r="Q14">
-        <v>1.10263282300268</v>
+        <v>0.8542589966666666</v>
       </c>
       <c r="R14">
-        <v>0.9294667819961716</v>
+        <v>0.7197410424999999</v>
       </c>
       <c r="S14">
-        <v>0.9294667819961716</v>
+        <v>0.7197410424999999</v>
       </c>
       <c r="T14">
-        <v>1.150561200677353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.866843725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.102088880422162</v>
+        <v>0.023300756</v>
       </c>
       <c r="D15">
-        <v>0.702129702947961</v>
+        <v>3.4428622</v>
       </c>
       <c r="E15">
-        <v>1.014844709945246</v>
+        <v>0.023300756</v>
       </c>
       <c r="F15">
-        <v>1.102088880422162</v>
+        <v>0.42160412</v>
       </c>
       <c r="G15">
-        <v>0.5578103691142329</v>
+        <v>1.134</v>
       </c>
       <c r="H15">
-        <v>1.034614917364419</v>
+        <v>0.39134565</v>
       </c>
       <c r="I15">
-        <v>1.042164527345565</v>
+        <v>0.21380688</v>
       </c>
       <c r="J15">
-        <v>0.702129702947961</v>
+        <v>3.4428622</v>
       </c>
       <c r="K15">
-        <v>1.102088880422162</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>1.014844709945246</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>0.8584872064466033</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>0.8584872064466033</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>0.9171964434192086</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>0.9396877644384564</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>0.9396877644384564</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>0.9802880434343829</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>0.9802880434343829</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>0.9089421845232644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9976479790757909</v>
+        <v>0.0054277247</v>
       </c>
       <c r="D16">
-        <v>1.00083620924042</v>
+        <v>0.51258452</v>
       </c>
       <c r="E16">
-        <v>1.000745611171903</v>
+        <v>0.0054277247</v>
       </c>
       <c r="F16">
-        <v>0.9976479790757909</v>
+        <v>1.5625706</v>
       </c>
       <c r="G16">
-        <v>1.002184269500919</v>
+        <v>1.2780143</v>
       </c>
       <c r="H16">
-        <v>1.000094516043672</v>
+        <v>0.073307975</v>
       </c>
       <c r="I16">
-        <v>0.9998849144804165</v>
+        <v>3.7934715</v>
       </c>
       <c r="J16">
-        <v>1.00083620924042</v>
+        <v>0.51258452</v>
       </c>
       <c r="K16">
-        <v>0.9976479790757909</v>
+        <v>0.51258452</v>
       </c>
       <c r="L16">
-        <v>1.000745611171903</v>
+        <v>1.5625706</v>
       </c>
       <c r="M16">
-        <v>1.000790910206162</v>
+        <v>0.78399916235</v>
       </c>
       <c r="N16">
-        <v>1.000790910206162</v>
+        <v>0.78399916235</v>
       </c>
       <c r="O16">
-        <v>1.000558778818665</v>
+        <v>0.5471020999</v>
       </c>
       <c r="P16">
-        <v>0.9997432664960381</v>
+        <v>0.6935276148999999</v>
       </c>
       <c r="Q16">
-        <v>0.9997432664960381</v>
+        <v>0.6935276148999999</v>
       </c>
       <c r="R16">
-        <v>0.9992194446409762</v>
+        <v>0.6482918411749999</v>
       </c>
       <c r="S16">
-        <v>0.9992194446409762</v>
+        <v>0.6482918411749999</v>
       </c>
       <c r="T16">
-        <v>1.000232249918853</v>
+        <v>1.204229436616667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002337868487474</v>
+        <v>0.090496971</v>
       </c>
       <c r="D17">
-        <v>0.9985628074914474</v>
+        <v>1.8169322</v>
       </c>
       <c r="E17">
-        <v>0.9996288682287717</v>
+        <v>0.090496971</v>
       </c>
       <c r="F17">
-        <v>1.002337868487474</v>
+        <v>1.1595991</v>
       </c>
       <c r="G17">
-        <v>0.9954466472691071</v>
+        <v>1.2558117</v>
       </c>
       <c r="H17">
-        <v>1.000345842968489</v>
+        <v>0.43684055</v>
       </c>
       <c r="I17">
-        <v>1.000177616122483</v>
+        <v>0.91371293</v>
       </c>
       <c r="J17">
-        <v>0.9985628074914474</v>
+        <v>1.8169322</v>
       </c>
       <c r="K17">
-        <v>1.002337868487474</v>
+        <v>1.8169322</v>
       </c>
       <c r="L17">
-        <v>0.9996288682287717</v>
+        <v>1.1595991</v>
       </c>
       <c r="M17">
-        <v>0.9990958378601096</v>
+        <v>0.6250480355000001</v>
       </c>
       <c r="N17">
-        <v>0.9990958378601096</v>
+        <v>0.6250480355000001</v>
       </c>
       <c r="O17">
-        <v>0.9995125062295692</v>
+        <v>0.5623122070000001</v>
       </c>
       <c r="P17">
-        <v>1.000176514735898</v>
+        <v>1.022342757</v>
       </c>
       <c r="Q17">
-        <v>1.000176514735898</v>
+        <v>1.022342757</v>
       </c>
       <c r="R17">
-        <v>1.000716853173792</v>
+        <v>1.22099011775</v>
       </c>
       <c r="S17">
-        <v>1.000716853173792</v>
+        <v>1.22099011775</v>
       </c>
       <c r="T17">
-        <v>0.999416608427962</v>
+        <v>0.9455655751666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9928618327267746</v>
+        <v>0.942867557071233</v>
       </c>
       <c r="D18">
-        <v>1.001758959827723</v>
+        <v>0.9065157298630137</v>
       </c>
       <c r="E18">
-        <v>1.001400365844473</v>
+        <v>0.942867557071233</v>
       </c>
       <c r="F18">
-        <v>0.9928618327267746</v>
+        <v>0.9959017194520551</v>
       </c>
       <c r="G18">
-        <v>1.004029103491647</v>
+        <v>0.9451279221917809</v>
       </c>
       <c r="H18">
-        <v>1.002570987729354</v>
+        <v>1.168279641369863</v>
       </c>
       <c r="I18">
-        <v>0.9984744033185616</v>
+        <v>0.7544660746849313</v>
       </c>
       <c r="J18">
-        <v>1.001758959827723</v>
+        <v>0.9065157298630137</v>
       </c>
       <c r="K18">
-        <v>0.9928618327267746</v>
+        <v>0.9065157298630137</v>
       </c>
       <c r="L18">
-        <v>1.001400365844473</v>
+        <v>0.9959017194520551</v>
       </c>
       <c r="M18">
-        <v>1.001579662836098</v>
+        <v>0.969384638261644</v>
       </c>
       <c r="N18">
-        <v>1.001579662836098</v>
+        <v>0.969384638261644</v>
       </c>
       <c r="O18">
-        <v>1.001910104467183</v>
+        <v>1.03568297263105</v>
       </c>
       <c r="P18">
-        <v>0.9986737194663234</v>
+        <v>0.9484283354621006</v>
       </c>
       <c r="Q18">
-        <v>0.9986737194663234</v>
+        <v>0.9484283354621006</v>
       </c>
       <c r="R18">
-        <v>0.9972207477814362</v>
+        <v>0.9379501840623289</v>
       </c>
       <c r="S18">
-        <v>0.9972207477814362</v>
+        <v>0.9379501840623289</v>
       </c>
       <c r="T18">
-        <v>1.000182608823089</v>
+        <v>0.9521931074388128</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9702448871771361</v>
+        <v>1.185664375810526</v>
       </c>
       <c r="D19">
-        <v>1.007944169199722</v>
+        <v>0.746581887368421</v>
       </c>
       <c r="E19">
-        <v>1.006734254332805</v>
+        <v>1.185664375810526</v>
       </c>
       <c r="F19">
-        <v>0.9702448871771361</v>
+        <v>1.156175754210526</v>
       </c>
       <c r="G19">
-        <v>1.01875516853107</v>
+        <v>1.008022804210526</v>
       </c>
       <c r="H19">
-        <v>1.007626041291561</v>
+        <v>0.8050845177368422</v>
       </c>
       <c r="I19">
-        <v>0.9963521264310542</v>
+        <v>1.842901521052632</v>
       </c>
       <c r="J19">
-        <v>1.007944169199722</v>
+        <v>0.746581887368421</v>
       </c>
       <c r="K19">
-        <v>0.9702448871771361</v>
+        <v>0.746581887368421</v>
       </c>
       <c r="L19">
-        <v>1.006734254332805</v>
+        <v>1.156175754210526</v>
       </c>
       <c r="M19">
-        <v>1.007339211766264</v>
+        <v>1.170920065010526</v>
       </c>
       <c r="N19">
-        <v>1.007339211766264</v>
+        <v>1.170920065010526</v>
       </c>
       <c r="O19">
-        <v>1.007434821608029</v>
+        <v>1.048974882585965</v>
       </c>
       <c r="P19">
-        <v>0.9949744369032212</v>
+        <v>1.029474005796491</v>
       </c>
       <c r="Q19">
-        <v>0.9949744369032212</v>
+        <v>1.029474005796491</v>
       </c>
       <c r="R19">
-        <v>0.9887920494717</v>
+        <v>0.9587509761894736</v>
       </c>
       <c r="S19">
-        <v>0.9887920494717</v>
+        <v>0.9587509761894736</v>
       </c>
       <c r="T19">
-        <v>1.001276107827225</v>
+        <v>1.124071810064912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.2081513839473683</v>
+      </c>
+      <c r="D20">
+        <v>1.597856059473684</v>
+      </c>
+      <c r="E20">
+        <v>0.2081513839473683</v>
+      </c>
+      <c r="F20">
+        <v>1.039957435789474</v>
+      </c>
+      <c r="G20">
+        <v>1.197749477368421</v>
+      </c>
+      <c r="H20">
+        <v>0.5890839115789474</v>
+      </c>
+      <c r="I20">
+        <v>1.010065296315789</v>
+      </c>
+      <c r="J20">
+        <v>1.597856059473684</v>
+      </c>
+      <c r="K20">
+        <v>1.597856059473684</v>
+      </c>
+      <c r="L20">
+        <v>1.039957435789474</v>
+      </c>
+      <c r="M20">
+        <v>0.624054409868421</v>
+      </c>
+      <c r="N20">
+        <v>0.624054409868421</v>
+      </c>
+      <c r="O20">
+        <v>0.6123975771052631</v>
+      </c>
+      <c r="P20">
+        <v>0.948654959736842</v>
+      </c>
+      <c r="Q20">
+        <v>0.948654959736842</v>
+      </c>
+      <c r="R20">
+        <v>1.110955234671053</v>
+      </c>
+      <c r="S20">
+        <v>1.110955234671053</v>
+      </c>
+      <c r="T20">
+        <v>0.940477260745614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.854160915451609</v>
+      </c>
+      <c r="D21">
+        <v>0.4099686589766471</v>
+      </c>
+      <c r="E21">
+        <v>1.854160915451609</v>
+      </c>
+      <c r="F21">
+        <v>1.043768894579783</v>
+      </c>
+      <c r="G21">
+        <v>0.8593119149466725</v>
+      </c>
+      <c r="H21">
+        <v>1.1674583238723</v>
+      </c>
+      <c r="I21">
+        <v>1.568698496237104</v>
+      </c>
+      <c r="J21">
+        <v>0.4099686589766471</v>
+      </c>
+      <c r="K21">
+        <v>0.4099686589766471</v>
+      </c>
+      <c r="L21">
+        <v>1.043768894579783</v>
+      </c>
+      <c r="M21">
+        <v>1.448964905015696</v>
+      </c>
+      <c r="N21">
+        <v>1.448964905015696</v>
+      </c>
+      <c r="O21">
+        <v>1.355129377967898</v>
+      </c>
+      <c r="P21">
+        <v>1.10263282300268</v>
+      </c>
+      <c r="Q21">
+        <v>1.10263282300268</v>
+      </c>
+      <c r="R21">
+        <v>0.9294667819961716</v>
+      </c>
+      <c r="S21">
+        <v>0.9294667819961716</v>
+      </c>
+      <c r="T21">
+        <v>1.150561200677353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.702129702947961</v>
+      </c>
+      <c r="D22">
+        <v>1.102088880422162</v>
+      </c>
+      <c r="E22">
+        <v>0.702129702947961</v>
+      </c>
+      <c r="F22">
+        <v>1.014844709945246</v>
+      </c>
+      <c r="G22">
+        <v>1.042164527345565</v>
+      </c>
+      <c r="H22">
+        <v>1.034614917364419</v>
+      </c>
+      <c r="I22">
+        <v>0.5578103691142329</v>
+      </c>
+      <c r="J22">
+        <v>1.102088880422162</v>
+      </c>
+      <c r="K22">
+        <v>1.102088880422162</v>
+      </c>
+      <c r="L22">
+        <v>1.014844709945246</v>
+      </c>
+      <c r="M22">
+        <v>0.8584872064466033</v>
+      </c>
+      <c r="N22">
+        <v>0.8584872064466033</v>
+      </c>
+      <c r="O22">
+        <v>0.9171964434192086</v>
+      </c>
+      <c r="P22">
+        <v>0.9396877644384563</v>
+      </c>
+      <c r="Q22">
+        <v>0.9396877644384563</v>
+      </c>
+      <c r="R22">
+        <v>0.9802880434343828</v>
+      </c>
+      <c r="S22">
+        <v>0.9802880434343828</v>
+      </c>
+      <c r="T22">
+        <v>0.9089421845232644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.8719239238809947</v>
+      </c>
+      <c r="D23">
+        <v>1.012461433004076</v>
+      </c>
+      <c r="E23">
+        <v>0.8719239238809947</v>
+      </c>
+      <c r="F23">
+        <v>1.019430561912298</v>
+      </c>
+      <c r="G23">
+        <v>1.014842993093235</v>
+      </c>
+      <c r="H23">
+        <v>1.031253835925272</v>
+      </c>
+      <c r="I23">
+        <v>0.8129922066431101</v>
+      </c>
+      <c r="J23">
+        <v>1.012461433004076</v>
+      </c>
+      <c r="K23">
+        <v>1.012461433004076</v>
+      </c>
+      <c r="L23">
+        <v>1.019430561912298</v>
+      </c>
+      <c r="M23">
+        <v>0.9456772428966465</v>
+      </c>
+      <c r="N23">
+        <v>0.9456772428966465</v>
+      </c>
+      <c r="O23">
+        <v>0.9742027739061884</v>
+      </c>
+      <c r="P23">
+        <v>0.9679386395991232</v>
+      </c>
+      <c r="Q23">
+        <v>0.9679386395991232</v>
+      </c>
+      <c r="R23">
+        <v>0.9790693379503614</v>
+      </c>
+      <c r="S23">
+        <v>0.9790693379503614</v>
+      </c>
+      <c r="T23">
+        <v>0.9604841590764979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.167695709703199</v>
+      </c>
+      <c r="D24">
+        <v>1.041518828479052</v>
+      </c>
+      <c r="E24">
+        <v>1.167695709703199</v>
+      </c>
+      <c r="F24">
+        <v>0.9287705550867932</v>
+      </c>
+      <c r="G24">
+        <v>0.9643769858330019</v>
+      </c>
+      <c r="H24">
+        <v>1.00542605858868</v>
+      </c>
+      <c r="I24">
+        <v>1.118066966595249</v>
+      </c>
+      <c r="J24">
+        <v>1.041518828479052</v>
+      </c>
+      <c r="K24">
+        <v>1.041518828479052</v>
+      </c>
+      <c r="L24">
+        <v>0.9287705550867932</v>
+      </c>
+      <c r="M24">
+        <v>1.048233132394996</v>
+      </c>
+      <c r="N24">
+        <v>1.048233132394996</v>
+      </c>
+      <c r="O24">
+        <v>1.033964107792891</v>
+      </c>
+      <c r="P24">
+        <v>1.045995031089681</v>
+      </c>
+      <c r="Q24">
+        <v>1.045995031089681</v>
+      </c>
+      <c r="R24">
+        <v>1.044875980437024</v>
+      </c>
+      <c r="S24">
+        <v>1.044875980437024</v>
+      </c>
+      <c r="T24">
+        <v>1.037642517380996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.1256023675932028</v>
+      </c>
+      <c r="D25">
+        <v>1.845666631898859</v>
+      </c>
+      <c r="E25">
+        <v>0.1256023675932028</v>
+      </c>
+      <c r="F25">
+        <v>0.9403668478855548</v>
+      </c>
+      <c r="G25">
+        <v>1.202425739218786</v>
+      </c>
+      <c r="H25">
+        <v>0.5536571491073804</v>
+      </c>
+      <c r="I25">
+        <v>0.922195270577522</v>
+      </c>
+      <c r="J25">
+        <v>1.845666631898859</v>
+      </c>
+      <c r="K25">
+        <v>1.845666631898859</v>
+      </c>
+      <c r="L25">
+        <v>0.9403668478855548</v>
+      </c>
+      <c r="M25">
+        <v>0.5329846077393788</v>
+      </c>
+      <c r="N25">
+        <v>0.5329846077393788</v>
+      </c>
+      <c r="O25">
+        <v>0.539875454862046</v>
+      </c>
+      <c r="P25">
+        <v>0.9705452824592058</v>
+      </c>
+      <c r="Q25">
+        <v>0.9705452824592057</v>
+      </c>
+      <c r="R25">
+        <v>1.189325619819119</v>
+      </c>
+      <c r="S25">
+        <v>1.189325619819119</v>
+      </c>
+      <c r="T25">
+        <v>0.9316523343802174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6921743360721672</v>
+      </c>
+      <c r="D26">
+        <v>0.6889231520591688</v>
+      </c>
+      <c r="E26">
+        <v>0.6921743360721672</v>
+      </c>
+      <c r="F26">
+        <v>1.197830094936088</v>
+      </c>
+      <c r="G26">
+        <v>1.050688001707842</v>
+      </c>
+      <c r="H26">
+        <v>0.936735370698054</v>
+      </c>
+      <c r="I26">
+        <v>1.341845957780527</v>
+      </c>
+      <c r="J26">
+        <v>0.6889231520591688</v>
+      </c>
+      <c r="K26">
+        <v>0.6889231520591688</v>
+      </c>
+      <c r="L26">
+        <v>1.197830094936088</v>
+      </c>
+      <c r="M26">
+        <v>0.9450022155041278</v>
+      </c>
+      <c r="N26">
+        <v>0.9450022155041278</v>
+      </c>
+      <c r="O26">
+        <v>0.9422466005687699</v>
+      </c>
+      <c r="P26">
+        <v>0.8596425276891414</v>
+      </c>
+      <c r="Q26">
+        <v>0.8596425276891414</v>
+      </c>
+      <c r="R26">
+        <v>0.8169626837816483</v>
+      </c>
+      <c r="S26">
+        <v>0.8169626837816483</v>
+      </c>
+      <c r="T26">
+        <v>0.984699485542308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.434298694111842</v>
+      </c>
+      <c r="D27">
+        <v>1.189667451754859</v>
+      </c>
+      <c r="E27">
+        <v>1.434298694111842</v>
+      </c>
+      <c r="F27">
+        <v>0.8944052153857734</v>
+      </c>
+      <c r="G27">
+        <v>0.97237736554442</v>
+      </c>
+      <c r="H27">
+        <v>0.942364483646163</v>
+      </c>
+      <c r="I27">
+        <v>1.014991200136283</v>
+      </c>
+      <c r="J27">
+        <v>1.189667451754859</v>
+      </c>
+      <c r="K27">
+        <v>1.189667451754859</v>
+      </c>
+      <c r="L27">
+        <v>0.8944052153857734</v>
+      </c>
+      <c r="M27">
+        <v>1.164351954748808</v>
+      </c>
+      <c r="N27">
+        <v>1.164351954748808</v>
+      </c>
+      <c r="O27">
+        <v>1.090356131047926</v>
+      </c>
+      <c r="P27">
+        <v>1.172790453750825</v>
+      </c>
+      <c r="Q27">
+        <v>1.172790453750825</v>
+      </c>
+      <c r="R27">
+        <v>1.177009703251833</v>
+      </c>
+      <c r="S27">
+        <v>1.177009703251833</v>
+      </c>
+      <c r="T27">
+        <v>1.07468406842989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8326251464476416</v>
+      </c>
+      <c r="D28">
+        <v>1.037566048733624</v>
+      </c>
+      <c r="E28">
+        <v>0.8326251464476416</v>
+      </c>
+      <c r="F28">
+        <v>1.038694036735031</v>
+      </c>
+      <c r="G28">
+        <v>1.026984505981875</v>
+      </c>
+      <c r="H28">
+        <v>0.9445280849308728</v>
+      </c>
+      <c r="I28">
+        <v>1.070703680533259</v>
+      </c>
+      <c r="J28">
+        <v>1.037566048733624</v>
+      </c>
+      <c r="K28">
+        <v>1.037566048733624</v>
+      </c>
+      <c r="L28">
+        <v>1.038694036735031</v>
+      </c>
+      <c r="M28">
+        <v>0.9356595915913364</v>
+      </c>
+      <c r="N28">
+        <v>0.9356595915913364</v>
+      </c>
+      <c r="O28">
+        <v>0.9386157560378484</v>
+      </c>
+      <c r="P28">
+        <v>0.9696284106387658</v>
+      </c>
+      <c r="Q28">
+        <v>0.9696284106387658</v>
+      </c>
+      <c r="R28">
+        <v>0.9866128201624804</v>
+      </c>
+      <c r="S28">
+        <v>0.9866128201624804</v>
+      </c>
+      <c r="T28">
+        <v>0.9918502505603842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7458092165576963</v>
+      </c>
+      <c r="D29">
+        <v>1.286056598247042</v>
+      </c>
+      <c r="E29">
+        <v>0.7458092165576963</v>
+      </c>
+      <c r="F29">
+        <v>0.9664292398340426</v>
+      </c>
+      <c r="G29">
+        <v>1.054779208540884</v>
+      </c>
+      <c r="H29">
+        <v>0.8538759486717824</v>
+      </c>
+      <c r="I29">
+        <v>1.020751126708015</v>
+      </c>
+      <c r="J29">
+        <v>1.286056598247042</v>
+      </c>
+      <c r="K29">
+        <v>1.286056598247042</v>
+      </c>
+      <c r="L29">
+        <v>0.9664292398340426</v>
+      </c>
+      <c r="M29">
+        <v>0.8561192281958694</v>
+      </c>
+      <c r="N29">
+        <v>0.8561192281958694</v>
+      </c>
+      <c r="O29">
+        <v>0.8553714683545071</v>
+      </c>
+      <c r="P29">
+        <v>0.9994316848795934</v>
+      </c>
+      <c r="Q29">
+        <v>0.9994316848795934</v>
+      </c>
+      <c r="R29">
+        <v>1.071087913221455</v>
+      </c>
+      <c r="S29">
+        <v>1.071087913221455</v>
+      </c>
+      <c r="T29">
+        <v>0.9879502230932437</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.83329482916822</v>
+        <v>1.048043311263515</v>
       </c>
       <c r="D4">
-        <v>0.9675206279505491</v>
+        <v>0.921109049329747</v>
       </c>
       <c r="E4">
-        <v>0.83329482916822</v>
+        <v>1.048043311263515</v>
       </c>
       <c r="F4">
-        <v>1.082933974525462</v>
+        <v>1.0132050407004</v>
       </c>
       <c r="G4">
-        <v>1.049420759549239</v>
+        <v>0.9829571789085928</v>
       </c>
       <c r="H4">
-        <v>0.8651263159791783</v>
+        <v>1.057314587869344</v>
       </c>
       <c r="I4">
-        <v>1.310347448962208</v>
+        <v>0.9254000337983951</v>
       </c>
       <c r="J4">
-        <v>0.9675206279505491</v>
+        <v>0.921109049329747</v>
       </c>
       <c r="K4">
-        <v>0.9675206279505491</v>
+        <v>0.921109049329747</v>
       </c>
       <c r="L4">
-        <v>1.082933974525462</v>
+        <v>1.0132050407004</v>
       </c>
       <c r="M4">
-        <v>0.958114401846841</v>
+        <v>1.030624175981957</v>
       </c>
       <c r="N4">
-        <v>0.958114401846841</v>
+        <v>1.030624175981957</v>
       </c>
       <c r="O4">
-        <v>0.9271183732242868</v>
+        <v>1.03952097994442</v>
       </c>
       <c r="P4">
-        <v>0.9612498105480771</v>
+        <v>0.994119133764554</v>
       </c>
       <c r="Q4">
-        <v>0.9612498105480771</v>
+        <v>0.994119133764554</v>
       </c>
       <c r="R4">
-        <v>0.962817514898695</v>
+        <v>0.9758666126558522</v>
       </c>
       <c r="S4">
-        <v>0.962817514898695</v>
+        <v>0.9758666126558522</v>
       </c>
       <c r="T4">
-        <v>1.018107326022476</v>
+        <v>0.9913382003116656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.027761060787179</v>
+        <v>0.1541309739244203</v>
       </c>
       <c r="D5">
-        <v>0.9231672348775191</v>
+        <v>1.651588834646963</v>
       </c>
       <c r="E5">
-        <v>1.027761060787179</v>
+        <v>0.1541309739244203</v>
       </c>
       <c r="F5">
-        <v>1.017840511066283</v>
+        <v>1.038102202874398</v>
       </c>
       <c r="G5">
-        <v>0.9845720861671463</v>
+        <v>1.220301463699015</v>
       </c>
       <c r="H5">
-        <v>1.05875961545677</v>
+        <v>0.5318965092460883</v>
       </c>
       <c r="I5">
-        <v>0.9054168276080694</v>
+        <v>1.084798484114686</v>
       </c>
       <c r="J5">
-        <v>0.9231672348775191</v>
+        <v>1.651588834646963</v>
       </c>
       <c r="K5">
-        <v>0.9231672348775191</v>
+        <v>1.651588834646963</v>
       </c>
       <c r="L5">
-        <v>1.017840511066283</v>
+        <v>1.038102202874398</v>
       </c>
       <c r="M5">
-        <v>1.022800785926731</v>
+        <v>0.5961165883994091</v>
       </c>
       <c r="N5">
-        <v>1.022800785926731</v>
+        <v>0.5961165883994091</v>
       </c>
       <c r="O5">
-        <v>1.034787062436744</v>
+        <v>0.5747098953483022</v>
       </c>
       <c r="P5">
-        <v>0.9895896022436602</v>
+        <v>0.947940670481927</v>
       </c>
       <c r="Q5">
-        <v>0.9895896022436602</v>
+        <v>0.947940670481927</v>
       </c>
       <c r="R5">
-        <v>0.9729840104021249</v>
+        <v>1.123852711523186</v>
       </c>
       <c r="S5">
-        <v>0.9729840104021249</v>
+        <v>1.123852711523186</v>
       </c>
       <c r="T5">
-        <v>0.986252889327161</v>
+        <v>0.9468030780842615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001044414597896</v>
+        <v>0.83329482916822</v>
       </c>
       <c r="D6">
-        <v>0.6241317312350898</v>
+        <v>0.9675206279505491</v>
       </c>
       <c r="E6">
-        <v>1.001044414597896</v>
+        <v>0.83329482916822</v>
       </c>
       <c r="F6">
-        <v>1.149199506273531</v>
+        <v>1.082933974525462</v>
       </c>
       <c r="G6">
-        <v>0.9611473140280894</v>
+        <v>1.049420759549239</v>
       </c>
       <c r="H6">
-        <v>1.203840934246781</v>
+        <v>0.8651263159791783</v>
       </c>
       <c r="I6">
-        <v>0.6349879351798686</v>
+        <v>1.310347448962208</v>
       </c>
       <c r="J6">
-        <v>0.6241317312350898</v>
+        <v>0.9675206279505491</v>
       </c>
       <c r="K6">
-        <v>0.6241317312350898</v>
+        <v>0.9675206279505491</v>
       </c>
       <c r="L6">
-        <v>1.149199506273531</v>
+        <v>1.082933974525462</v>
       </c>
       <c r="M6">
-        <v>1.075121960435713</v>
+        <v>0.958114401846841</v>
       </c>
       <c r="N6">
-        <v>1.075121960435713</v>
+        <v>0.958114401846841</v>
       </c>
       <c r="O6">
-        <v>1.118028285039403</v>
+        <v>0.9271183732242868</v>
       </c>
       <c r="P6">
-        <v>0.9247918840355055</v>
+        <v>0.9612498105480771</v>
       </c>
       <c r="Q6">
-        <v>0.9247918840355056</v>
+        <v>0.9612498105480771</v>
       </c>
       <c r="R6">
-        <v>0.8496268458354017</v>
+        <v>0.962817514898695</v>
       </c>
       <c r="S6">
-        <v>0.8496268458354017</v>
+        <v>0.962817514898695</v>
       </c>
       <c r="T6">
-        <v>0.9290586392602092</v>
+        <v>1.018107326022476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9946235845185235</v>
+        <v>1.027761060787179</v>
       </c>
       <c r="D7">
-        <v>0.9995499483878691</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="E7">
-        <v>0.9946235845185235</v>
+        <v>1.027761060787179</v>
       </c>
       <c r="F7">
-        <v>0.9987952715743096</v>
+        <v>1.017840511066283</v>
       </c>
       <c r="G7">
-        <v>0.9982685716944655</v>
+        <v>0.9845720861671463</v>
       </c>
       <c r="H7">
-        <v>1.006355265067157</v>
+        <v>1.05875961545677</v>
       </c>
       <c r="I7">
-        <v>0.9869691700145405</v>
+        <v>0.9054168276080694</v>
       </c>
       <c r="J7">
-        <v>0.9995499483878691</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="K7">
-        <v>0.9995499483878691</v>
+        <v>0.9231672348775191</v>
       </c>
       <c r="L7">
-        <v>0.9987952715743096</v>
+        <v>1.017840511066283</v>
       </c>
       <c r="M7">
-        <v>0.9967094280464166</v>
+        <v>1.022800785926731</v>
       </c>
       <c r="N7">
-        <v>0.9967094280464166</v>
+        <v>1.022800785926731</v>
       </c>
       <c r="O7">
-        <v>0.9999247070533301</v>
+        <v>1.034787062436744</v>
       </c>
       <c r="P7">
-        <v>0.9976562681602341</v>
+        <v>0.9895896022436602</v>
       </c>
       <c r="Q7">
-        <v>0.9976562681602341</v>
+        <v>0.9895896022436602</v>
       </c>
       <c r="R7">
-        <v>0.9981296882171429</v>
+        <v>0.9729840104021249</v>
       </c>
       <c r="S7">
-        <v>0.9981296882171429</v>
+        <v>0.9729840104021249</v>
       </c>
       <c r="T7">
-        <v>0.9974269685428109</v>
+        <v>0.986252889327161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9985628074914477</v>
+        <v>1.001044414597896</v>
       </c>
       <c r="D8">
-        <v>1.002337868487474</v>
+        <v>0.6241317312350898</v>
       </c>
       <c r="E8">
-        <v>0.9985628074914477</v>
+        <v>1.001044414597896</v>
       </c>
       <c r="F8">
-        <v>0.9996288682287721</v>
+        <v>1.149199506273531</v>
       </c>
       <c r="G8">
-        <v>1.000177616122483</v>
+        <v>0.9611473140280894</v>
       </c>
       <c r="H8">
-        <v>1.000345842968489</v>
+        <v>1.203840934246781</v>
       </c>
       <c r="I8">
-        <v>0.9954466472691071</v>
+        <v>0.6349879351798686</v>
       </c>
       <c r="J8">
-        <v>1.002337868487474</v>
+        <v>0.6241317312350898</v>
       </c>
       <c r="K8">
-        <v>1.002337868487474</v>
+        <v>0.6241317312350898</v>
       </c>
       <c r="L8">
-        <v>0.9996288682287721</v>
+        <v>1.149199506273531</v>
       </c>
       <c r="M8">
-        <v>0.9990958378601098</v>
+        <v>1.075121960435713</v>
       </c>
       <c r="N8">
-        <v>0.9990958378601098</v>
+        <v>1.075121960435713</v>
       </c>
       <c r="O8">
-        <v>0.9995125062295696</v>
+        <v>1.118028285039403</v>
       </c>
       <c r="P8">
-        <v>1.000176514735898</v>
+        <v>0.9247918840355055</v>
       </c>
       <c r="Q8">
-        <v>1.000176514735898</v>
+        <v>0.9247918840355056</v>
       </c>
       <c r="R8">
-        <v>1.000716853173792</v>
+        <v>0.8496268458354017</v>
       </c>
       <c r="S8">
-        <v>1.000716853173792</v>
+        <v>0.8496268458354017</v>
       </c>
       <c r="T8">
-        <v>0.999416608427962</v>
+        <v>0.9290586392602092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9950267695014033</v>
+        <v>0.9946235845185235</v>
       </c>
       <c r="D9">
-        <v>0.9894521664842243</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="E9">
-        <v>0.9950267695014033</v>
+        <v>0.9946235845185235</v>
       </c>
       <c r="F9">
-        <v>1.00070804397502</v>
+        <v>0.9987952715743096</v>
       </c>
       <c r="G9">
-        <v>0.9952368444042927</v>
+        <v>0.9982685716944655</v>
       </c>
       <c r="H9">
-        <v>1.01494540532494</v>
+        <v>1.006355265067157</v>
       </c>
       <c r="I9">
-        <v>0.9795415742781129</v>
+        <v>0.9869691700145405</v>
       </c>
       <c r="J9">
-        <v>0.9894521664842243</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="K9">
-        <v>0.9894521664842243</v>
+        <v>0.9995499483878691</v>
       </c>
       <c r="L9">
-        <v>1.00070804397502</v>
+        <v>0.9987952715743096</v>
       </c>
       <c r="M9">
-        <v>0.9978674067382116</v>
+        <v>0.9967094280464166</v>
       </c>
       <c r="N9">
-        <v>0.9978674067382116</v>
+        <v>0.9967094280464166</v>
       </c>
       <c r="O9">
-        <v>1.003560072933788</v>
+        <v>0.9999247070533301</v>
       </c>
       <c r="P9">
-        <v>0.9950623266535491</v>
+        <v>0.9976562681602341</v>
       </c>
       <c r="Q9">
-        <v>0.9950623266535491</v>
+        <v>0.9976562681602341</v>
       </c>
       <c r="R9">
-        <v>0.9936597866112179</v>
+        <v>0.9981296882171429</v>
       </c>
       <c r="S9">
-        <v>0.9936597866112179</v>
+        <v>0.9981296882171429</v>
       </c>
       <c r="T9">
-        <v>0.9958184673279989</v>
+        <v>0.9974269685428109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9791836775125612</v>
+        <v>0.9985628074914477</v>
       </c>
       <c r="D10">
-        <v>0.6048817623591209</v>
+        <v>1.002337868487474</v>
       </c>
       <c r="E10">
-        <v>0.9791836775125612</v>
+        <v>0.9985628074914477</v>
       </c>
       <c r="F10">
-        <v>1.160662504201934</v>
+        <v>0.9996288682287721</v>
       </c>
       <c r="G10">
-        <v>0.9630995540251072</v>
+        <v>1.000177616122483</v>
       </c>
       <c r="H10">
-        <v>1.208835122177436</v>
+        <v>1.000345842968489</v>
       </c>
       <c r="I10">
-        <v>0.6245177307341323</v>
+        <v>0.9954466472691071</v>
       </c>
       <c r="J10">
-        <v>0.6048817623591209</v>
+        <v>1.002337868487474</v>
       </c>
       <c r="K10">
-        <v>0.6048817623591209</v>
+        <v>1.002337868487474</v>
       </c>
       <c r="L10">
-        <v>1.160662504201934</v>
+        <v>0.9996288682287721</v>
       </c>
       <c r="M10">
-        <v>1.069923090857248</v>
+        <v>0.9990958378601098</v>
       </c>
       <c r="N10">
-        <v>1.069923090857248</v>
+        <v>0.9990958378601098</v>
       </c>
       <c r="O10">
-        <v>1.11622710129731</v>
+        <v>0.9995125062295696</v>
       </c>
       <c r="P10">
-        <v>0.9149093146912054</v>
+        <v>1.000176514735898</v>
       </c>
       <c r="Q10">
-        <v>0.9149093146912053</v>
+        <v>1.000176514735898</v>
       </c>
       <c r="R10">
-        <v>0.8374024266081842</v>
+        <v>1.000716853173792</v>
       </c>
       <c r="S10">
-        <v>0.8374024266081842</v>
+        <v>1.000716853173792</v>
       </c>
       <c r="T10">
-        <v>0.9235300585017151</v>
+        <v>0.999416608427962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8441057411291404</v>
+        <v>0.9950267695014033</v>
       </c>
       <c r="D11">
-        <v>0.9635540100028261</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="E11">
-        <v>0.8441057411291404</v>
+        <v>0.9950267695014033</v>
       </c>
       <c r="F11">
-        <v>1.076609086350009</v>
+        <v>1.00070804397502</v>
       </c>
       <c r="G11">
-        <v>1.044776069005108</v>
+        <v>0.9952368444042927</v>
       </c>
       <c r="H11">
-        <v>0.8931725053009205</v>
+        <v>1.01494540532494</v>
       </c>
       <c r="I11">
-        <v>1.228737250271591</v>
+        <v>0.9795415742781129</v>
       </c>
       <c r="J11">
-        <v>0.9635540100028261</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="K11">
-        <v>0.9635540100028261</v>
+        <v>0.9894521664842243</v>
       </c>
       <c r="L11">
-        <v>1.076609086350009</v>
+        <v>1.00070804397502</v>
       </c>
       <c r="M11">
-        <v>0.9603574137395746</v>
+        <v>0.9978674067382116</v>
       </c>
       <c r="N11">
-        <v>0.9603574137395746</v>
+        <v>0.9978674067382116</v>
       </c>
       <c r="O11">
-        <v>0.9379624442600232</v>
+        <v>1.003560072933788</v>
       </c>
       <c r="P11">
-        <v>0.9614229458273251</v>
+        <v>0.9950623266535491</v>
       </c>
       <c r="Q11">
-        <v>0.9614229458273251</v>
+        <v>0.9950623266535491</v>
       </c>
       <c r="R11">
-        <v>0.9619557118712003</v>
+        <v>0.9936597866112179</v>
       </c>
       <c r="S11">
-        <v>0.9619557118712003</v>
+        <v>0.9936597866112179</v>
       </c>
       <c r="T11">
-        <v>1.008492443676599</v>
+        <v>0.9958184673279989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9830220032852626</v>
+        <v>0.9791836775125612</v>
       </c>
       <c r="D12">
-        <v>0.8845264446421041</v>
+        <v>0.6048817623591209</v>
       </c>
       <c r="E12">
-        <v>0.9830220032852626</v>
+        <v>0.9791836775125612</v>
       </c>
       <c r="F12">
-        <v>1.043227683957896</v>
+        <v>1.160662504201934</v>
       </c>
       <c r="G12">
-        <v>0.9895329408210538</v>
+        <v>0.9630995540251072</v>
       </c>
       <c r="H12">
-        <v>1.063741856021052</v>
+        <v>1.208835122177436</v>
       </c>
       <c r="I12">
-        <v>0.8954012934421056</v>
+        <v>0.6245177307341323</v>
       </c>
       <c r="J12">
-        <v>0.8845264446421041</v>
+        <v>0.6048817623591209</v>
       </c>
       <c r="K12">
-        <v>0.8845264446421041</v>
+        <v>0.6048817623591209</v>
       </c>
       <c r="L12">
-        <v>1.043227683957896</v>
+        <v>1.160662504201934</v>
       </c>
       <c r="M12">
-        <v>1.013124843621579</v>
+        <v>1.069923090857248</v>
       </c>
       <c r="N12">
-        <v>1.013124843621579</v>
+        <v>1.069923090857248</v>
       </c>
       <c r="O12">
-        <v>1.02999718108807</v>
+        <v>1.11622710129731</v>
       </c>
       <c r="P12">
-        <v>0.9702587106284208</v>
+        <v>0.9149093146912054</v>
       </c>
       <c r="Q12">
-        <v>0.9702587106284207</v>
+        <v>0.9149093146912053</v>
       </c>
       <c r="R12">
-        <v>0.9488256441318416</v>
+        <v>0.8374024266081842</v>
       </c>
       <c r="S12">
-        <v>0.9488256441318416</v>
+        <v>0.8374024266081842</v>
       </c>
       <c r="T12">
-        <v>0.9765753703615788</v>
+        <v>0.9235300585017151</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8699580309027648</v>
+        <v>0.8441057411291404</v>
       </c>
       <c r="D13">
-        <v>0.9895735244500315</v>
+        <v>0.9635540100028261</v>
       </c>
       <c r="E13">
-        <v>0.8699580309027648</v>
+        <v>0.8441057411291404</v>
       </c>
       <c r="F13">
-        <v>1.037276931918105</v>
+        <v>1.076609086350009</v>
       </c>
       <c r="G13">
-        <v>1.024512849301271</v>
+        <v>1.044776069005108</v>
       </c>
       <c r="H13">
-        <v>0.9630288150250348</v>
+        <v>0.8931725053009205</v>
       </c>
       <c r="I13">
-        <v>1.04322483812628</v>
+        <v>1.228737250271591</v>
       </c>
       <c r="J13">
-        <v>0.9895735244500315</v>
+        <v>0.9635540100028261</v>
       </c>
       <c r="K13">
-        <v>0.9895735244500315</v>
+        <v>0.9635540100028261</v>
       </c>
       <c r="L13">
-        <v>1.037276931918105</v>
+        <v>1.076609086350009</v>
       </c>
       <c r="M13">
-        <v>0.953617481410435</v>
+        <v>0.9603574137395746</v>
       </c>
       <c r="N13">
-        <v>0.953617481410435</v>
+        <v>0.9603574137395746</v>
       </c>
       <c r="O13">
-        <v>0.9567545926153015</v>
+        <v>0.9379624442600232</v>
       </c>
       <c r="P13">
-        <v>0.9656028290903005</v>
+        <v>0.9614229458273251</v>
       </c>
       <c r="Q13">
-        <v>0.9656028290903005</v>
+        <v>0.9614229458273251</v>
       </c>
       <c r="R13">
-        <v>0.9715955029302332</v>
+        <v>0.9619557118712003</v>
       </c>
       <c r="S13">
-        <v>0.9715955029302332</v>
+        <v>0.9619557118712003</v>
       </c>
       <c r="T13">
-        <v>0.9879291649539145</v>
+        <v>1.008492443676599</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9583655099999996</v>
+        <v>0.9830220032852626</v>
       </c>
       <c r="D14">
-        <v>0.31618718</v>
+        <v>0.8845264446421041</v>
       </c>
       <c r="E14">
-        <v>0.9583655099999996</v>
+        <v>0.9830220032852626</v>
       </c>
       <c r="F14">
-        <v>1.2882243</v>
+        <v>1.043227683957896</v>
       </c>
       <c r="G14">
-        <v>0.9383557499999998</v>
+        <v>0.9895329408210538</v>
       </c>
       <c r="H14">
-        <v>1.353817500000001</v>
+        <v>1.063741856021052</v>
       </c>
       <c r="I14">
-        <v>0.34611211</v>
+        <v>0.8954012934421056</v>
       </c>
       <c r="J14">
-        <v>0.31618718</v>
+        <v>0.8845264446421041</v>
       </c>
       <c r="K14">
-        <v>0.31618718</v>
+        <v>0.8845264446421041</v>
       </c>
       <c r="L14">
-        <v>1.2882243</v>
+        <v>1.043227683957896</v>
       </c>
       <c r="M14">
-        <v>1.123294905</v>
+        <v>1.013124843621579</v>
       </c>
       <c r="N14">
-        <v>1.123294905</v>
+        <v>1.013124843621579</v>
       </c>
       <c r="O14">
-        <v>1.20013577</v>
+        <v>1.02999718108807</v>
       </c>
       <c r="P14">
-        <v>0.8542589966666664</v>
+        <v>0.9702587106284208</v>
       </c>
       <c r="Q14">
-        <v>0.8542589966666666</v>
+        <v>0.9702587106284207</v>
       </c>
       <c r="R14">
-        <v>0.7197410424999999</v>
+        <v>0.9488256441318416</v>
       </c>
       <c r="S14">
-        <v>0.7197410424999999</v>
+        <v>0.9488256441318416</v>
       </c>
       <c r="T14">
-        <v>0.866843725</v>
+        <v>0.9765753703615788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.023300756</v>
+        <v>0.8699580309027648</v>
       </c>
       <c r="D15">
-        <v>3.4428622</v>
+        <v>0.9895735244500315</v>
       </c>
       <c r="E15">
-        <v>0.023300756</v>
+        <v>0.8699580309027648</v>
       </c>
       <c r="F15">
-        <v>0.42160412</v>
+        <v>1.037276931918105</v>
       </c>
       <c r="G15">
-        <v>1.134</v>
+        <v>1.024512849301271</v>
       </c>
       <c r="H15">
-        <v>0.39134565</v>
+        <v>0.9630288150250348</v>
       </c>
       <c r="I15">
-        <v>0.21380688</v>
+        <v>1.04322483812628</v>
       </c>
       <c r="J15">
-        <v>3.4428622</v>
+        <v>0.9895735244500315</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>0.9895735244500315</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>1.037276931918105</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>0.953617481410435</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>0.953617481410435</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>0.9567545926153015</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>0.9656028290903005</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>0.9656028290903005</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>0.9715955029302332</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>0.9715955029302332</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>0.9879291649539145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0054277247</v>
+        <v>0.9583655099999996</v>
       </c>
       <c r="D16">
-        <v>0.51258452</v>
+        <v>0.31618718</v>
       </c>
       <c r="E16">
-        <v>0.0054277247</v>
+        <v>0.9583655099999996</v>
       </c>
       <c r="F16">
-        <v>1.5625706</v>
+        <v>1.2882243</v>
       </c>
       <c r="G16">
-        <v>1.2780143</v>
+        <v>0.9383557499999998</v>
       </c>
       <c r="H16">
-        <v>0.073307975</v>
+        <v>1.353817500000001</v>
       </c>
       <c r="I16">
-        <v>3.7934715</v>
+        <v>0.34611211</v>
       </c>
       <c r="J16">
-        <v>0.51258452</v>
+        <v>0.31618718</v>
       </c>
       <c r="K16">
-        <v>0.51258452</v>
+        <v>0.31618718</v>
       </c>
       <c r="L16">
-        <v>1.5625706</v>
+        <v>1.2882243</v>
       </c>
       <c r="M16">
-        <v>0.78399916235</v>
+        <v>1.123294905</v>
       </c>
       <c r="N16">
-        <v>0.78399916235</v>
+        <v>1.123294905</v>
       </c>
       <c r="O16">
-        <v>0.5471020999</v>
+        <v>1.20013577</v>
       </c>
       <c r="P16">
-        <v>0.6935276148999999</v>
+        <v>0.8542589966666664</v>
       </c>
       <c r="Q16">
-        <v>0.6935276148999999</v>
+        <v>0.8542589966666666</v>
       </c>
       <c r="R16">
-        <v>0.6482918411749999</v>
+        <v>0.7197410424999999</v>
       </c>
       <c r="S16">
-        <v>0.6482918411749999</v>
+        <v>0.7197410424999999</v>
       </c>
       <c r="T16">
-        <v>1.204229436616667</v>
+        <v>0.866843725</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.090496971</v>
+        <v>0.023300756</v>
       </c>
       <c r="D17">
-        <v>1.8169322</v>
+        <v>3.4428622</v>
       </c>
       <c r="E17">
-        <v>0.090496971</v>
+        <v>0.023300756</v>
       </c>
       <c r="F17">
-        <v>1.1595991</v>
+        <v>0.42160412</v>
       </c>
       <c r="G17">
-        <v>1.2558117</v>
+        <v>1.134</v>
       </c>
       <c r="H17">
-        <v>0.43684055</v>
+        <v>0.39134565</v>
       </c>
       <c r="I17">
-        <v>0.91371293</v>
+        <v>0.21380688</v>
       </c>
       <c r="J17">
-        <v>1.8169322</v>
+        <v>3.4428622</v>
       </c>
       <c r="K17">
-        <v>1.8169322</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>1.1595991</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>0.6250480355000001</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>0.6250480355000001</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>0.5623122070000001</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>1.022342757</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>1.022342757</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>1.22099011775</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>1.22099011775</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>0.9455655751666666</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.942867557071233</v>
+        <v>0.0054277247</v>
       </c>
       <c r="D18">
-        <v>0.9065157298630137</v>
+        <v>0.51258452</v>
       </c>
       <c r="E18">
-        <v>0.942867557071233</v>
+        <v>0.0054277247</v>
       </c>
       <c r="F18">
-        <v>0.9959017194520551</v>
+        <v>1.5625706</v>
       </c>
       <c r="G18">
-        <v>0.9451279221917809</v>
+        <v>1.2780143</v>
       </c>
       <c r="H18">
-        <v>1.168279641369863</v>
+        <v>0.073307975</v>
       </c>
       <c r="I18">
-        <v>0.7544660746849313</v>
+        <v>3.7934715</v>
       </c>
       <c r="J18">
-        <v>0.9065157298630137</v>
+        <v>0.51258452</v>
       </c>
       <c r="K18">
-        <v>0.9065157298630137</v>
+        <v>0.51258452</v>
       </c>
       <c r="L18">
-        <v>0.9959017194520551</v>
+        <v>1.5625706</v>
       </c>
       <c r="M18">
-        <v>0.969384638261644</v>
+        <v>0.78399916235</v>
       </c>
       <c r="N18">
-        <v>0.969384638261644</v>
+        <v>0.78399916235</v>
       </c>
       <c r="O18">
-        <v>1.03568297263105</v>
+        <v>0.5471020999</v>
       </c>
       <c r="P18">
-        <v>0.9484283354621006</v>
+        <v>0.6935276148999999</v>
       </c>
       <c r="Q18">
-        <v>0.9484283354621006</v>
+        <v>0.6935276148999999</v>
       </c>
       <c r="R18">
-        <v>0.9379501840623289</v>
+        <v>0.6482918411749999</v>
       </c>
       <c r="S18">
-        <v>0.9379501840623289</v>
+        <v>0.6482918411749999</v>
       </c>
       <c r="T18">
-        <v>0.9521931074388128</v>
+        <v>1.204229436616667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.185664375810526</v>
+        <v>0.090496971</v>
       </c>
       <c r="D19">
-        <v>0.746581887368421</v>
+        <v>1.8169322</v>
       </c>
       <c r="E19">
-        <v>1.185664375810526</v>
+        <v>0.090496971</v>
       </c>
       <c r="F19">
-        <v>1.156175754210526</v>
+        <v>1.1595991</v>
       </c>
       <c r="G19">
-        <v>1.008022804210526</v>
+        <v>1.2558117</v>
       </c>
       <c r="H19">
-        <v>0.8050845177368422</v>
+        <v>0.43684055</v>
       </c>
       <c r="I19">
-        <v>1.842901521052632</v>
+        <v>0.91371293</v>
       </c>
       <c r="J19">
-        <v>0.746581887368421</v>
+        <v>1.8169322</v>
       </c>
       <c r="K19">
-        <v>0.746581887368421</v>
+        <v>1.8169322</v>
       </c>
       <c r="L19">
-        <v>1.156175754210526</v>
+        <v>1.1595991</v>
       </c>
       <c r="M19">
-        <v>1.170920065010526</v>
+        <v>0.6250480355000001</v>
       </c>
       <c r="N19">
-        <v>1.170920065010526</v>
+        <v>0.6250480355000001</v>
       </c>
       <c r="O19">
-        <v>1.048974882585965</v>
+        <v>0.5623122070000001</v>
       </c>
       <c r="P19">
-        <v>1.029474005796491</v>
+        <v>1.022342757</v>
       </c>
       <c r="Q19">
-        <v>1.029474005796491</v>
+        <v>1.022342757</v>
       </c>
       <c r="R19">
-        <v>0.9587509761894736</v>
+        <v>1.22099011775</v>
       </c>
       <c r="S19">
-        <v>0.9587509761894736</v>
+        <v>1.22099011775</v>
       </c>
       <c r="T19">
-        <v>1.124071810064912</v>
+        <v>0.9455655751666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.2081513839473683</v>
+        <v>0.942867557071233</v>
       </c>
       <c r="D20">
-        <v>1.597856059473684</v>
+        <v>0.9065157298630137</v>
       </c>
       <c r="E20">
-        <v>0.2081513839473683</v>
+        <v>0.942867557071233</v>
       </c>
       <c r="F20">
-        <v>1.039957435789474</v>
+        <v>0.9959017194520551</v>
       </c>
       <c r="G20">
-        <v>1.197749477368421</v>
+        <v>0.9451279221917809</v>
       </c>
       <c r="H20">
-        <v>0.5890839115789474</v>
+        <v>1.168279641369863</v>
       </c>
       <c r="I20">
-        <v>1.010065296315789</v>
+        <v>0.7544660746849313</v>
       </c>
       <c r="J20">
-        <v>1.597856059473684</v>
+        <v>0.9065157298630137</v>
       </c>
       <c r="K20">
-        <v>1.597856059473684</v>
+        <v>0.9065157298630137</v>
       </c>
       <c r="L20">
-        <v>1.039957435789474</v>
+        <v>0.9959017194520551</v>
       </c>
       <c r="M20">
-        <v>0.624054409868421</v>
+        <v>0.969384638261644</v>
       </c>
       <c r="N20">
-        <v>0.624054409868421</v>
+        <v>0.969384638261644</v>
       </c>
       <c r="O20">
-        <v>0.6123975771052631</v>
+        <v>1.03568297263105</v>
       </c>
       <c r="P20">
-        <v>0.948654959736842</v>
+        <v>0.9484283354621006</v>
       </c>
       <c r="Q20">
-        <v>0.948654959736842</v>
+        <v>0.9484283354621006</v>
       </c>
       <c r="R20">
-        <v>1.110955234671053</v>
+        <v>0.9379501840623289</v>
       </c>
       <c r="S20">
-        <v>1.110955234671053</v>
+        <v>0.9379501840623289</v>
       </c>
       <c r="T20">
-        <v>0.940477260745614</v>
+        <v>0.9521931074388128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.854160915451609</v>
+        <v>1.185664375810526</v>
       </c>
       <c r="D21">
-        <v>0.4099686589766471</v>
+        <v>0.746581887368421</v>
       </c>
       <c r="E21">
-        <v>1.854160915451609</v>
+        <v>1.185664375810526</v>
       </c>
       <c r="F21">
-        <v>1.043768894579783</v>
+        <v>1.156175754210526</v>
       </c>
       <c r="G21">
-        <v>0.8593119149466725</v>
+        <v>1.008022804210526</v>
       </c>
       <c r="H21">
-        <v>1.1674583238723</v>
+        <v>0.8050845177368422</v>
       </c>
       <c r="I21">
-        <v>1.568698496237104</v>
+        <v>1.842901521052632</v>
       </c>
       <c r="J21">
-        <v>0.4099686589766471</v>
+        <v>0.746581887368421</v>
       </c>
       <c r="K21">
-        <v>0.4099686589766471</v>
+        <v>0.746581887368421</v>
       </c>
       <c r="L21">
-        <v>1.043768894579783</v>
+        <v>1.156175754210526</v>
       </c>
       <c r="M21">
-        <v>1.448964905015696</v>
+        <v>1.170920065010526</v>
       </c>
       <c r="N21">
-        <v>1.448964905015696</v>
+        <v>1.170920065010526</v>
       </c>
       <c r="O21">
-        <v>1.355129377967898</v>
+        <v>1.048974882585965</v>
       </c>
       <c r="P21">
-        <v>1.10263282300268</v>
+        <v>1.029474005796491</v>
       </c>
       <c r="Q21">
-        <v>1.10263282300268</v>
+        <v>1.029474005796491</v>
       </c>
       <c r="R21">
-        <v>0.9294667819961716</v>
+        <v>0.9587509761894736</v>
       </c>
       <c r="S21">
-        <v>0.9294667819961716</v>
+        <v>0.9587509761894736</v>
       </c>
       <c r="T21">
-        <v>1.150561200677353</v>
+        <v>1.124071810064912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.702129702947961</v>
+        <v>0.2081513839473683</v>
       </c>
       <c r="D22">
-        <v>1.102088880422162</v>
+        <v>1.597856059473684</v>
       </c>
       <c r="E22">
-        <v>0.702129702947961</v>
+        <v>0.2081513839473683</v>
       </c>
       <c r="F22">
-        <v>1.014844709945246</v>
+        <v>1.039957435789474</v>
       </c>
       <c r="G22">
-        <v>1.042164527345565</v>
+        <v>1.197749477368421</v>
       </c>
       <c r="H22">
-        <v>1.034614917364419</v>
+        <v>0.5890839115789474</v>
       </c>
       <c r="I22">
-        <v>0.5578103691142329</v>
+        <v>1.010065296315789</v>
       </c>
       <c r="J22">
-        <v>1.102088880422162</v>
+        <v>1.597856059473684</v>
       </c>
       <c r="K22">
-        <v>1.102088880422162</v>
+        <v>1.597856059473684</v>
       </c>
       <c r="L22">
-        <v>1.014844709945246</v>
+        <v>1.039957435789474</v>
       </c>
       <c r="M22">
-        <v>0.8584872064466033</v>
+        <v>0.624054409868421</v>
       </c>
       <c r="N22">
-        <v>0.8584872064466033</v>
+        <v>0.624054409868421</v>
       </c>
       <c r="O22">
-        <v>0.9171964434192086</v>
+        <v>0.6123975771052631</v>
       </c>
       <c r="P22">
-        <v>0.9396877644384563</v>
+        <v>0.948654959736842</v>
       </c>
       <c r="Q22">
-        <v>0.9396877644384563</v>
+        <v>0.948654959736842</v>
       </c>
       <c r="R22">
-        <v>0.9802880434343828</v>
+        <v>1.110955234671053</v>
       </c>
       <c r="S22">
-        <v>0.9802880434343828</v>
+        <v>1.110955234671053</v>
       </c>
       <c r="T22">
-        <v>0.9089421845232644</v>
+        <v>0.940477260745614</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8719239238809947</v>
+        <v>1.854160915451609</v>
       </c>
       <c r="D23">
-        <v>1.012461433004076</v>
+        <v>0.4099686589766471</v>
       </c>
       <c r="E23">
-        <v>0.8719239238809947</v>
+        <v>1.854160915451609</v>
       </c>
       <c r="F23">
-        <v>1.019430561912298</v>
+        <v>1.043768894579783</v>
       </c>
       <c r="G23">
-        <v>1.014842993093235</v>
+        <v>0.8593119149466725</v>
       </c>
       <c r="H23">
-        <v>1.031253835925272</v>
+        <v>1.1674583238723</v>
       </c>
       <c r="I23">
-        <v>0.8129922066431101</v>
+        <v>1.568698496237104</v>
       </c>
       <c r="J23">
-        <v>1.012461433004076</v>
+        <v>0.4099686589766471</v>
       </c>
       <c r="K23">
-        <v>1.012461433004076</v>
+        <v>0.4099686589766471</v>
       </c>
       <c r="L23">
-        <v>1.019430561912298</v>
+        <v>1.043768894579783</v>
       </c>
       <c r="M23">
-        <v>0.9456772428966465</v>
+        <v>1.448964905015696</v>
       </c>
       <c r="N23">
-        <v>0.9456772428966465</v>
+        <v>1.448964905015696</v>
       </c>
       <c r="O23">
-        <v>0.9742027739061884</v>
+        <v>1.355129377967898</v>
       </c>
       <c r="P23">
-        <v>0.9679386395991232</v>
+        <v>1.10263282300268</v>
       </c>
       <c r="Q23">
-        <v>0.9679386395991232</v>
+        <v>1.10263282300268</v>
       </c>
       <c r="R23">
-        <v>0.9790693379503614</v>
+        <v>0.9294667819961716</v>
       </c>
       <c r="S23">
-        <v>0.9790693379503614</v>
+        <v>0.9294667819961716</v>
       </c>
       <c r="T23">
-        <v>0.9604841590764979</v>
+        <v>1.150561200677353</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.167695709703199</v>
+        <v>0.702129702947961</v>
       </c>
       <c r="D24">
-        <v>1.041518828479052</v>
+        <v>1.102088880422162</v>
       </c>
       <c r="E24">
-        <v>1.167695709703199</v>
+        <v>0.702129702947961</v>
       </c>
       <c r="F24">
-        <v>0.9287705550867932</v>
+        <v>1.014844709945246</v>
       </c>
       <c r="G24">
-        <v>0.9643769858330019</v>
+        <v>1.042164527345565</v>
       </c>
       <c r="H24">
-        <v>1.00542605858868</v>
+        <v>1.034614917364419</v>
       </c>
       <c r="I24">
-        <v>1.118066966595249</v>
+        <v>0.5578103691142329</v>
       </c>
       <c r="J24">
-        <v>1.041518828479052</v>
+        <v>1.102088880422162</v>
       </c>
       <c r="K24">
-        <v>1.041518828479052</v>
+        <v>1.102088880422162</v>
       </c>
       <c r="L24">
-        <v>0.9287705550867932</v>
+        <v>1.014844709945246</v>
       </c>
       <c r="M24">
-        <v>1.048233132394996</v>
+        <v>0.8584872064466033</v>
       </c>
       <c r="N24">
-        <v>1.048233132394996</v>
+        <v>0.8584872064466033</v>
       </c>
       <c r="O24">
-        <v>1.033964107792891</v>
+        <v>0.9171964434192086</v>
       </c>
       <c r="P24">
-        <v>1.045995031089681</v>
+        <v>0.9396877644384563</v>
       </c>
       <c r="Q24">
-        <v>1.045995031089681</v>
+        <v>0.9396877644384563</v>
       </c>
       <c r="R24">
-        <v>1.044875980437024</v>
+        <v>0.9802880434343828</v>
       </c>
       <c r="S24">
-        <v>1.044875980437024</v>
+        <v>0.9802880434343828</v>
       </c>
       <c r="T24">
-        <v>1.037642517380996</v>
+        <v>0.9089421845232644</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1256023675932028</v>
+        <v>0.8719239238809947</v>
       </c>
       <c r="D25">
-        <v>1.845666631898859</v>
+        <v>1.012461433004076</v>
       </c>
       <c r="E25">
-        <v>0.1256023675932028</v>
+        <v>0.8719239238809947</v>
       </c>
       <c r="F25">
-        <v>0.9403668478855548</v>
+        <v>1.019430561912298</v>
       </c>
       <c r="G25">
-        <v>1.202425739218786</v>
+        <v>1.014842993093235</v>
       </c>
       <c r="H25">
-        <v>0.5536571491073804</v>
+        <v>1.031253835925272</v>
       </c>
       <c r="I25">
-        <v>0.922195270577522</v>
+        <v>0.8129922066431101</v>
       </c>
       <c r="J25">
-        <v>1.845666631898859</v>
+        <v>1.012461433004076</v>
       </c>
       <c r="K25">
-        <v>1.845666631898859</v>
+        <v>1.012461433004076</v>
       </c>
       <c r="L25">
-        <v>0.9403668478855548</v>
+        <v>1.019430561912298</v>
       </c>
       <c r="M25">
-        <v>0.5329846077393788</v>
+        <v>0.9456772428966465</v>
       </c>
       <c r="N25">
-        <v>0.5329846077393788</v>
+        <v>0.9456772428966465</v>
       </c>
       <c r="O25">
-        <v>0.539875454862046</v>
+        <v>0.9742027739061884</v>
       </c>
       <c r="P25">
-        <v>0.9705452824592058</v>
+        <v>0.9679386395991232</v>
       </c>
       <c r="Q25">
-        <v>0.9705452824592057</v>
+        <v>0.9679386395991232</v>
       </c>
       <c r="R25">
-        <v>1.189325619819119</v>
+        <v>0.9790693379503614</v>
       </c>
       <c r="S25">
-        <v>1.189325619819119</v>
+        <v>0.9790693379503614</v>
       </c>
       <c r="T25">
-        <v>0.9316523343802174</v>
+        <v>0.9604841590764979</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.6921743360721672</v>
+        <v>1.167695709703199</v>
       </c>
       <c r="D26">
-        <v>0.6889231520591688</v>
+        <v>1.041518828479052</v>
       </c>
       <c r="E26">
-        <v>0.6921743360721672</v>
+        <v>1.167695709703199</v>
       </c>
       <c r="F26">
-        <v>1.197830094936088</v>
+        <v>0.9287705550867932</v>
       </c>
       <c r="G26">
-        <v>1.050688001707842</v>
+        <v>0.9643769858330019</v>
       </c>
       <c r="H26">
-        <v>0.936735370698054</v>
+        <v>1.00542605858868</v>
       </c>
       <c r="I26">
-        <v>1.341845957780527</v>
+        <v>1.118066966595249</v>
       </c>
       <c r="J26">
-        <v>0.6889231520591688</v>
+        <v>1.041518828479052</v>
       </c>
       <c r="K26">
-        <v>0.6889231520591688</v>
+        <v>1.041518828479052</v>
       </c>
       <c r="L26">
-        <v>1.197830094936088</v>
+        <v>0.9287705550867932</v>
       </c>
       <c r="M26">
-        <v>0.9450022155041278</v>
+        <v>1.048233132394996</v>
       </c>
       <c r="N26">
-        <v>0.9450022155041278</v>
+        <v>1.048233132394996</v>
       </c>
       <c r="O26">
-        <v>0.9422466005687699</v>
+        <v>1.033964107792891</v>
       </c>
       <c r="P26">
-        <v>0.8596425276891414</v>
+        <v>1.045995031089681</v>
       </c>
       <c r="Q26">
-        <v>0.8596425276891414</v>
+        <v>1.045995031089681</v>
       </c>
       <c r="R26">
-        <v>0.8169626837816483</v>
+        <v>1.044875980437024</v>
       </c>
       <c r="S26">
-        <v>0.8169626837816483</v>
+        <v>1.044875980437024</v>
       </c>
       <c r="T26">
-        <v>0.984699485542308</v>
+        <v>1.037642517380996</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.434298694111842</v>
+        <v>0.1256023675932028</v>
       </c>
       <c r="D27">
-        <v>1.189667451754859</v>
+        <v>1.845666631898859</v>
       </c>
       <c r="E27">
-        <v>1.434298694111842</v>
+        <v>0.1256023675932028</v>
       </c>
       <c r="F27">
-        <v>0.8944052153857734</v>
+        <v>0.9403668478855548</v>
       </c>
       <c r="G27">
-        <v>0.97237736554442</v>
+        <v>1.202425739218786</v>
       </c>
       <c r="H27">
-        <v>0.942364483646163</v>
+        <v>0.5536571491073804</v>
       </c>
       <c r="I27">
-        <v>1.014991200136283</v>
+        <v>0.922195270577522</v>
       </c>
       <c r="J27">
-        <v>1.189667451754859</v>
+        <v>1.845666631898859</v>
       </c>
       <c r="K27">
-        <v>1.189667451754859</v>
+        <v>1.845666631898859</v>
       </c>
       <c r="L27">
-        <v>0.8944052153857734</v>
+        <v>0.9403668478855548</v>
       </c>
       <c r="M27">
-        <v>1.164351954748808</v>
+        <v>0.5329846077393788</v>
       </c>
       <c r="N27">
-        <v>1.164351954748808</v>
+        <v>0.5329846077393788</v>
       </c>
       <c r="O27">
-        <v>1.090356131047926</v>
+        <v>0.539875454862046</v>
       </c>
       <c r="P27">
-        <v>1.172790453750825</v>
+        <v>0.9705452824592058</v>
       </c>
       <c r="Q27">
-        <v>1.172790453750825</v>
+        <v>0.9705452824592057</v>
       </c>
       <c r="R27">
-        <v>1.177009703251833</v>
+        <v>1.189325619819119</v>
       </c>
       <c r="S27">
-        <v>1.177009703251833</v>
+        <v>1.189325619819119</v>
       </c>
       <c r="T27">
-        <v>1.07468406842989</v>
+        <v>0.9316523343802174</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8326251464476416</v>
+        <v>0.6921743360721672</v>
       </c>
       <c r="D28">
-        <v>1.037566048733624</v>
+        <v>0.6889231520591688</v>
       </c>
       <c r="E28">
-        <v>0.8326251464476416</v>
+        <v>0.6921743360721672</v>
       </c>
       <c r="F28">
-        <v>1.038694036735031</v>
+        <v>1.197830094936088</v>
       </c>
       <c r="G28">
-        <v>1.026984505981875</v>
+        <v>1.050688001707842</v>
       </c>
       <c r="H28">
-        <v>0.9445280849308728</v>
+        <v>0.936735370698054</v>
       </c>
       <c r="I28">
-        <v>1.070703680533259</v>
+        <v>1.341845957780527</v>
       </c>
       <c r="J28">
-        <v>1.037566048733624</v>
+        <v>0.6889231520591688</v>
       </c>
       <c r="K28">
-        <v>1.037566048733624</v>
+        <v>0.6889231520591688</v>
       </c>
       <c r="L28">
-        <v>1.038694036735031</v>
+        <v>1.197830094936088</v>
       </c>
       <c r="M28">
-        <v>0.9356595915913364</v>
+        <v>0.9450022155041278</v>
       </c>
       <c r="N28">
-        <v>0.9356595915913364</v>
+        <v>0.9450022155041278</v>
       </c>
       <c r="O28">
-        <v>0.9386157560378484</v>
+        <v>0.9422466005687699</v>
       </c>
       <c r="P28">
-        <v>0.9696284106387658</v>
+        <v>0.8596425276891414</v>
       </c>
       <c r="Q28">
-        <v>0.9696284106387658</v>
+        <v>0.8596425276891414</v>
       </c>
       <c r="R28">
-        <v>0.9866128201624804</v>
+        <v>0.8169626837816483</v>
       </c>
       <c r="S28">
-        <v>0.9866128201624804</v>
+        <v>0.8169626837816483</v>
       </c>
       <c r="T28">
-        <v>0.9918502505603842</v>
+        <v>0.984699485542308</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.434298694111842</v>
+      </c>
+      <c r="D29">
+        <v>1.189667451754859</v>
+      </c>
+      <c r="E29">
+        <v>1.434298694111842</v>
+      </c>
+      <c r="F29">
+        <v>0.8944052153857734</v>
+      </c>
+      <c r="G29">
+        <v>0.97237736554442</v>
+      </c>
+      <c r="H29">
+        <v>0.942364483646163</v>
+      </c>
+      <c r="I29">
+        <v>1.014991200136283</v>
+      </c>
+      <c r="J29">
+        <v>1.189667451754859</v>
+      </c>
+      <c r="K29">
+        <v>1.189667451754859</v>
+      </c>
+      <c r="L29">
+        <v>0.8944052153857734</v>
+      </c>
+      <c r="M29">
+        <v>1.164351954748808</v>
+      </c>
+      <c r="N29">
+        <v>1.164351954748808</v>
+      </c>
+      <c r="O29">
+        <v>1.090356131047926</v>
+      </c>
+      <c r="P29">
+        <v>1.172790453750825</v>
+      </c>
+      <c r="Q29">
+        <v>1.172790453750825</v>
+      </c>
+      <c r="R29">
+        <v>1.177009703251833</v>
+      </c>
+      <c r="S29">
+        <v>1.177009703251833</v>
+      </c>
+      <c r="T29">
+        <v>1.07468406842989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8326251464476416</v>
+      </c>
+      <c r="D30">
+        <v>1.037566048733624</v>
+      </c>
+      <c r="E30">
+        <v>0.8326251464476416</v>
+      </c>
+      <c r="F30">
+        <v>1.038694036735031</v>
+      </c>
+      <c r="G30">
+        <v>1.026984505981875</v>
+      </c>
+      <c r="H30">
+        <v>0.9445280849308728</v>
+      </c>
+      <c r="I30">
+        <v>1.070703680533259</v>
+      </c>
+      <c r="J30">
+        <v>1.037566048733624</v>
+      </c>
+      <c r="K30">
+        <v>1.037566048733624</v>
+      </c>
+      <c r="L30">
+        <v>1.038694036735031</v>
+      </c>
+      <c r="M30">
+        <v>0.9356595915913364</v>
+      </c>
+      <c r="N30">
+        <v>0.9356595915913364</v>
+      </c>
+      <c r="O30">
+        <v>0.9386157560378484</v>
+      </c>
+      <c r="P30">
+        <v>0.9696284106387658</v>
+      </c>
+      <c r="Q30">
+        <v>0.9696284106387658</v>
+      </c>
+      <c r="R30">
+        <v>0.9866128201624804</v>
+      </c>
+      <c r="S30">
+        <v>0.9866128201624804</v>
+      </c>
+      <c r="T30">
+        <v>0.9918502505603842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.7458092165576963</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.286056598247042</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.7458092165576963</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9664292398340426</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.054779208540884</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8538759486717824</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.020751126708015</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.286056598247042</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.286056598247042</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9664292398340426</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8561192281958694</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.8561192281958694</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.8553714683545071</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9994316848795934</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9994316848795934</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.071087913221455</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.071087913221455</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9879502230932437</v>
       </c>
     </row>
